--- a/data/hotels_by_city/Dallas/Dallas_shard_728.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_728.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="348">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,922 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r557785757-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>109407</t>
+  </si>
+  <si>
+    <t>557785757</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Bad customer service first of all I didn't know there was a $50 deposit which is ridiculous cuz all the other Super 8 ha</t>
+  </si>
+  <si>
+    <t>Terrible customer service website doesn't even say anything about a $50 deposit which is ridiculous because all of the Super 8 even in lower-income neighborhoods the deposit only $20 I wish the guy said if you can't pay that I don't know what you can do just give me any options at all rooms are outdated terribly they don't even have flat screen TVs</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r547958807-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>547958807</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r547744145-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>547744145</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>Never go here. Worse place I've ever stayed my fault for...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never go here. Worse place I've ever stayed my fault for thinking it was a wyndham property it would be maintained up to their standards.  Bed bugs. When I went to check for more there was hair and dirt under the sheets. Plus tv didn't work. They actually watched us pack up and gave us a room on the complete opposite side upstairs. Rude rude rude people here. Save your money.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r514836975-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>514836975</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>trip was to dr office</t>
+  </si>
+  <si>
+    <t>We have stayed here once a week for the past 6 weeks..the staff are nice and once i had problem with remote and they were quick to fix it...the rooms are nice and the beds are comfy....will be staying there again next week...thank yall!!!</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r508127157-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>508127157</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>don't even think about it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first room we were given had no inside chain lock or flip lock. The door looked like it was kicked in. There was blood on the wall and hair on the wall of th bathroom. </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r506233706-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>506233706</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Out of date room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had to be switch to a different room due to the room not up to standard's. Burn marks on the tub the handle of the shower fell off. Carpet came up. I hated thjs room </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r496911097-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>496911097</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wasn't clean. Asked for a king room got a double bed asked for non smoking got smoking. Shower was disgusting. </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r491554177-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>491554177</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r491356618-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>491356618</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>This place is a dump!</t>
+  </si>
+  <si>
+    <t>Dirty, the smell of marijuana in the hallway,  rude front desk staff, found hair on the sheets and they never changed them, so I simply left. Don't waste your money here! They are totally unacceptable and accommodating! First and last visit here!</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r477997487-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>477997487</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t>The Worse Motel!</t>
+  </si>
+  <si>
+    <t>It was the worse motel I had experiences! Out side very filthy and old! Inside the room smell sting!There was huge woman period blood on maters cover sheet. I found it at 11:30pm, I used hotel phone call front desk, phone picked up and hung up, I dialed again twice and no answered.If you like clean and safe place for your night of sleep, DON'T come to this Super 8 Dallas.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r472682088-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>472682088</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Comicon Weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice staff, location was great. Breakfast - 30 minutes after it started, all that was left was waffle makings. Everything else was gone. Otherwise it was nice. If breakfast was watched by staff, it would have rated much better. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r472500082-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>472500082</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Hotel needs to be updated inside and out! Bathrooms...</t>
+  </si>
+  <si>
+    <t>Hotel needs to be updated inside and out! Bathrooms horrible. Dirty walls, hot water did not work, it required special rigging by staff.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r452060195-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>452060195</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r448781213-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>448781213</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>Stale cigarette stench and AWFUL bed!</t>
+  </si>
+  <si>
+    <t>Dirty outside, stairwells filthy, also unswept trash. Room reeks of smoke. Terrible bed. Is the bed an air mattress?? Very uncomfortable!  Hair dyer out-of-order. TV has a strange cord hanging from the front of it. Turns out it is a sensor for the remote -- so you need to position this cord just so in order to change the channel on the TV. This is the worst Super 8. Paid $70.00 -- not worth the money!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r447324254-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>447324254</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>great Super Location</t>
+  </si>
+  <si>
+    <t>I stayed a night in the super 8 Dallas TX. the room had been remodeled and was very clean and pleasant. the size of the room are very big comparing to other Super 8s. the employees were welcoming and they really tried to make us feel welcomed.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r446097433-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>446097433</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r432950736-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>432950736</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>The bathroom way discusting. There was what appeared to be blood spatter on the wall, coffee drip stains where on the door and the bathtub was completely dirty. When i woke in the night i found cockroach's running aroung and when my daughter was walking around on the carpet her feet turned black. We will not be returning...i cancelled my last reservation.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r430358113-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>430358113</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r421743346-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>421743346</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t>Appearance of room not kept up.</t>
+  </si>
+  <si>
+    <t>The bathroom trash can, had previous persons trash underneath the liner. Housekeeping did not do job correctly. The drawers had graffiti inside with inappropriate language written. Easy fix to paint over it, but hotel may be to cheap to fix it. The tv in room had scratches on it all over. Like if someone took a knife and scratched it. So obviously when tv was on the picture was horrible. The housekeeper kept trying to barge in the room an 1 1/2 before check out time to come in and clean while we were still in the room! I repeatedly told her we still had time and she kept trying to open the door, very unprofessional!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>The bathroom trash can, had previous persons trash underneath the liner. Housekeeping did not do job correctly. The drawers had graffiti inside with inappropriate language written. Easy fix to paint over it, but hotel may be to cheap to fix it. The tv in room had scratches on it all over. Like if someone took a knife and scratched it. So obviously when tv was on the picture was horrible. The housekeeper kept trying to barge in the room an 1 1/2 before check out time to come in and clean while we were still in the room! I repeatedly told her we still had time and she kept trying to open the door, very unprofessional!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r420368194-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>420368194</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r420318970-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>420318970</t>
+  </si>
+  <si>
+    <t>Saved by the bell</t>
+  </si>
+  <si>
+    <t>We had an important appointment and was unable to get a room at our previous hotel. We went on line and found this location the price was affordable and we received excellent service and the room was great. The most comfortable bed ever!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r413524488-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>413524488</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>Not a safe place at all</t>
+  </si>
+  <si>
+    <t>The hotel needs a remake over since its look run down. The room looked like it wasn't cleaned. There was trash in the trash cans.  The sheets and comforter looked like they weren't cleaned. Stains all over them. The door bolt was broken looked like it was broken into at one time. The shower leaked. Was suppose to stay the night. Was in town for a concert and when got back to hotel didn't feel safe that there was extra curricular activities going on upstairs.  Sketchy vehicles coming in and out. Plus the door to the room wasn't flesh to the door frame so there was a open space so see light outside. So we got back into the car and drove up to the office while was locked and try to talk to the man behind the  plexiglass window but couldn't really talk to him since you couldn't understand what he was saying since there wasn't any talk hold to speak through. So I basically paid for a room for the night for bags to stay for a couple of hours while I was at a concert. Will never go back. Not a safe place to be unless you look what's going on in the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>The hotel needs a remake over since its look run down. The room looked like it wasn't cleaned. There was trash in the trash cans.  The sheets and comforter looked like they weren't cleaned. Stains all over them. The door bolt was broken looked like it was broken into at one time. The shower leaked. Was suppose to stay the night. Was in town for a concert and when got back to hotel didn't feel safe that there was extra curricular activities going on upstairs.  Sketchy vehicles coming in and out. Plus the door to the room wasn't flesh to the door frame so there was a open space so see light outside. So we got back into the car and drove up to the office while was locked and try to talk to the man behind the  plexiglass window but couldn't really talk to him since you couldn't understand what he was saying since there wasn't any talk hold to speak through. So I basically paid for a room for the night for bags to stay for a couple of hours while I was at a concert. Will never go back. Not a safe place to be unless you look what's going on in the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r412809281-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>412809281</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Do not stay here</t>
+  </si>
+  <si>
+    <t>Sheets were dirty. Parking lot was noisy all night with loud music from a vehicle. Internet was not working. The young man on duty didn't seem to care about anything.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r411628617-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>411628617</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r398636553-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>398636553</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Trip to Dallas</t>
+  </si>
+  <si>
+    <t>By the time i reached to this Super 8 i was tired due to a long journey and hours of driving. I never expected to get such a warm welcome and accommodating. Me and my family liked the stay and also the breakfast. In future i will look for more Super 8's this was a first time for me and my family staying at one.. It was a great stay !!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r398595168-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>398595168</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>Hotel Accomodation were very nice,front desk person was super friendly and very helpful. Furniture is little outdated but very comfortable bed. They have complementary breakfast that consisted cereal,pastry,yogurt,,coffee and juice. This is the one of the better Super 8 I have stayed inn. We would surely return in future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r398591136-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>398591136</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r381423191-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>381423191</t>
+  </si>
+  <si>
+    <t>06/10/2016</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here.</t>
+  </si>
+  <si>
+    <t>Rude Staff,Night Desk Person unknowedglible, He did not know how to extend My stay.  Very Poor Area.(High Crime Area) Breakfast is a joke. Spotted a few roaches in the room.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r367885252-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>367885252</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r364492390-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>364492390</t>
+  </si>
+  <si>
+    <t>04/15/2016</t>
+  </si>
+  <si>
+    <t>Pleasure</t>
+  </si>
+  <si>
+    <t>This was the worst motel we have ever visited. The management was aware of inappropriate activities going on in motel. We were afraid to leave in the night and were so happy to see morning. Do NOT stay in the motel! The person at the desk made reference that we should stay in the front! Awful! Trust me... When we were asked if we were paying "cash" we knew it was bad. I did not sleep all night for worrying of the type of place we had trusted our life at! Run don't walk!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r340350536-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>340350536</t>
+  </si>
+  <si>
+    <t>01/15/2016</t>
+  </si>
+  <si>
+    <t>better then my last one</t>
+  </si>
+  <si>
+    <t>It was a good and friendly hotel. It needs attention to details and it could be a great hotel. My last super 8 in AZ was very good on my trip. It was that night so good location. I don't have much needs so it was good.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r326027952-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>326027952</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Pretty crummy</t>
+  </si>
+  <si>
+    <t>A pretty crummy place to be put up by American Airlines because of a cancelled flight.  The receptionist clearly flunked out of charm school, but to his credit wasn't the least fazed by disgruntled and tired airline passengers,  The arrival was made worse by an overly optimistic estimate of how long the shuttle bus would take to arrive at the airport.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r322747294-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>322747294</t>
+  </si>
+  <si>
+    <t>10/28/2015</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r316446587-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>316446587</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The people that checked me in, one had a short fuse. When I tried to ask a question heade me feel like an inconvenience. There was junk stacked in the lobby and breakfast ran out early.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r306388617-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>306388617</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r299218869-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>299218869</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>Safety Issues and Inconvenience.</t>
+  </si>
+  <si>
+    <t>This is the chain Super 8 but a different location in Dallas, Texas.  The address I am reviewing is found at 9229 E. John W. Carpenter Fwy.  Other than being close to our visit sight this location is in a very old part of the city I think which made this area prone to crime and theft.  This motel took reservations that was truly very convenient at the end of our travel day from our home in Kansas City, Missouri.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r256239190-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>256239190</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r255083821-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>255083821</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>LOOK ELSEWHERE</t>
+  </si>
+  <si>
+    <t>I didn't even stay. I demanded my money back almost immediately after entering the room I had booked over 2 weeks in advance. The room was dirty and DID NOT look at all like the pictured room on the website (jacuzzi king suite). The jacuzzi was nothing like the jacuzzi pictured on the website either, it was not in the room next to the bed, it was just a deep tub with a couple of jets, no steps, nothing worth paying extra for. There were cigarette and blunt burns all over the edge of the sink and jacuzzi as well. There was a conjoined room next door as well which was not mentioned in the description either. I checked the door and it appeared as though that door didn't lock either, so a stranger could have just walked in from next door had they pleased!?  
+Upon informing the front desk of my dissatisfaction with the room (once again, booked over 2 weeks in advance) he responded to me "We almost cancelled your reservation because you arrived after midnight to check in". I responded "well go ahead and do it, cancel my room and give me my refund right now". 
+  He resisted giving the refund at first, until he realized I was staying in the hotel with my band (we had rented a total of five rooms) upon realizing that we were all travelling together (no one was happy with their...I didn't even stay. I demanded my money back almost immediately after entering the room I had booked over 2 weeks in advance. The room was dirty and DID NOT look at all like the pictured room on the website (jacuzzi king suite). The jacuzzi was nothing like the jacuzzi pictured on the website either, it was not in the room next to the bed, it was just a deep tub with a couple of jets, no steps, nothing worth paying extra for. There were cigarette and blunt burns all over the edge of the sink and jacuzzi as well. There was a conjoined room next door as well which was not mentioned in the description either. I checked the door and it appeared as though that door didn't lock either, so a stranger could have just walked in from next door had they pleased!?  Upon informing the front desk of my dissatisfaction with the room (once again, booked over 2 weeks in advance) he responded to me "We almost cancelled your reservation because you arrived after midnight to check in". I responded "well go ahead and do it, cancel my room and give me my refund right now".   He resisted giving the refund at first, until he realized I was staying in the hotel with my band (we had rented a total of five rooms) upon realizing that we were all travelling together (no one was happy with their room, as none of the rooms were as described), and me threatening to call super 8 corporate right that moment (2:30am 2/14/2015 YEAH VALENTINES DAY NO LESS!) the staff finally gave in and issued a refund to everybody in my group. we ended up staying at the hilton garden inn marketplace about 15 minutes away, and they even worked with us after we informed them of our situation, they gave us a room from 5am to 11am the next day for the cost of a single day (and upon checkout they informed me that our rooms were reserved through the NEXT day, and that we could indeed stay at no additional cost, but alas, our plans couldnt be adjusted to enjoy the extra day)MoreShow less</t>
+  </si>
+  <si>
+    <t>I didn't even stay. I demanded my money back almost immediately after entering the room I had booked over 2 weeks in advance. The room was dirty and DID NOT look at all like the pictured room on the website (jacuzzi king suite). The jacuzzi was nothing like the jacuzzi pictured on the website either, it was not in the room next to the bed, it was just a deep tub with a couple of jets, no steps, nothing worth paying extra for. There were cigarette and blunt burns all over the edge of the sink and jacuzzi as well. There was a conjoined room next door as well which was not mentioned in the description either. I checked the door and it appeared as though that door didn't lock either, so a stranger could have just walked in from next door had they pleased!?  
+Upon informing the front desk of my dissatisfaction with the room (once again, booked over 2 weeks in advance) he responded to me "We almost cancelled your reservation because you arrived after midnight to check in". I responded "well go ahead and do it, cancel my room and give me my refund right now". 
+  He resisted giving the refund at first, until he realized I was staying in the hotel with my band (we had rented a total of five rooms) upon realizing that we were all travelling together (no one was happy with their...I didn't even stay. I demanded my money back almost immediately after entering the room I had booked over 2 weeks in advance. The room was dirty and DID NOT look at all like the pictured room on the website (jacuzzi king suite). The jacuzzi was nothing like the jacuzzi pictured on the website either, it was not in the room next to the bed, it was just a deep tub with a couple of jets, no steps, nothing worth paying extra for. There were cigarette and blunt burns all over the edge of the sink and jacuzzi as well. There was a conjoined room next door as well which was not mentioned in the description either. I checked the door and it appeared as though that door didn't lock either, so a stranger could have just walked in from next door had they pleased!?  Upon informing the front desk of my dissatisfaction with the room (once again, booked over 2 weeks in advance) he responded to me "We almost cancelled your reservation because you arrived after midnight to check in". I responded "well go ahead and do it, cancel my room and give me my refund right now".   He resisted giving the refund at first, until he realized I was staying in the hotel with my band (we had rented a total of five rooms) upon realizing that we were all travelling together (no one was happy with their room, as none of the rooms were as described), and me threatening to call super 8 corporate right that moment (2:30am 2/14/2015 YEAH VALENTINES DAY NO LESS!) the staff finally gave in and issued a refund to everybody in my group. we ended up staying at the hilton garden inn marketplace about 15 minutes away, and they even worked with us after we informed them of our situation, they gave us a room from 5am to 11am the next day for the cost of a single day (and upon checkout they informed me that our rooms were reserved through the NEXT day, and that we could indeed stay at no additional cost, but alas, our plans couldnt be adjusted to enjoy the extra day)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r251161495-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>251161495</t>
+  </si>
+  <si>
+    <t>01/26/2015</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r224428142-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>224428142</t>
+  </si>
+  <si>
+    <t>08/25/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r216079158-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>216079158</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r212407186-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>212407186</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>Great !!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great motel ! Loved the room the cleanliness was there, didn't expect it from a motel and the service was ok definitely staying here again ! Spacious rooms! And the price was not out of the question ! The housekeepers were nice </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r198456209-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>198456209</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r191656927-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>191656927</t>
+  </si>
+  <si>
+    <t>01/21/2014</t>
+  </si>
+  <si>
+    <t>Not great, stay elsewhere</t>
+  </si>
+  <si>
+    <t>We are on a small road trip and have stayed in many similar motels recently. This particular Super 8 was notably poorer than others we have stayed in, so given the many choices you have, we wouldn't recommend that you choose this one. The motel is in an area of Dallas that seemed a little unsavoury to us. The staff not very helpful. The exterior is very run down and dirty and the pool was filled with plastic bags and trash. The room itself was acceptable, but the door was drafty and looked like it had been previously broken into. The road noise was very loud. Breakfast was present, but the area was dirty, coffee was cold etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>We are on a small road trip and have stayed in many similar motels recently. This particular Super 8 was notably poorer than others we have stayed in, so given the many choices you have, we wouldn't recommend that you choose this one. The motel is in an area of Dallas that seemed a little unsavoury to us. The staff not very helpful. The exterior is very run down and dirty and the pool was filled with plastic bags and trash. The room itself was acceptable, but the door was drafty and looked like it had been previously broken into. The road noise was very loud. Breakfast was present, but the area was dirty, coffee was cold etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r166047786-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>166047786</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>Great night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had a nice quiet great night sleep after a new kids on the block concert. I did not want to leave that bed. It was awesome. The people were nice. No troubles at all. I would totally stay there again. </t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r148748123-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>148748123</t>
+  </si>
+  <si>
+    <t>01/03/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r146819906-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>146819906</t>
+  </si>
+  <si>
+    <t>12/05/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r145987348-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>145987348</t>
+  </si>
+  <si>
+    <t>11/22/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r142980160-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>142980160</t>
+  </si>
+  <si>
+    <t>10/16/2012</t>
+  </si>
+  <si>
+    <t>Worst Super 8 Night</t>
+  </si>
+  <si>
+    <t>- The room (114) reeked of cigarette smoke even though it is designated as a non-smoking room.- The fixtures and furniture looked good, but the plumbing was hard to use (knobs swapped and tough to turn), noisy, and inconsistent and the furniture was flimsy and clunky.- It took time to check out because a guy was negotiating the cash fee for his room-for-an-hour while a much younger woman sat looking bored in his car (ended as $45 for an hour down from $60).</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r142427514-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>142427514</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r141619040-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>141619040</t>
+  </si>
+  <si>
+    <t>09/29/2012</t>
+  </si>
+  <si>
+    <t>If I could give it a NEGATIVE 5 stars I would!</t>
+  </si>
+  <si>
+    <t>My husband and I booked this room for 2 nights in advance because the location seemed good and the price was right. We weren't expecting anything fancy, just bare bones but safe and comfortable. Believe me when I say we are low maintenance and it would take A LOT of horror to turn us away from a hotel. Let me also just preface this review by letting you know that the two nights before we checked into this place we stayed on the Ft. Worth side of town in another Super 8 which was really wonderful so I really had a side by side comparison! We arrived late on a Thursday afternoon and were horrified when we pulled up to find that the location was seedy at best and the placed looked absolutely nothing like the pictures posted on any of the websites we'd visited prior to booking. When I went to check in, the lobby was practically empty and a young and very uninterested (aka not very customer service oriented) kid was behind the desk listening to his Ipod. While I was waiting for him to notice me, a homeless man came by and started digging thru the garbage can! That should have been our first clue but still we checked in and made the trek up to the second floor (outside and stairs only, no elevator). The second thing that turned us off about this location was that...My husband and I booked this room for 2 nights in advance because the location seemed good and the price was right. We weren't expecting anything fancy, just bare bones but safe and comfortable. Believe me when I say we are low maintenance and it would take A LOT of horror to turn us away from a hotel. Let me also just preface this review by letting you know that the two nights before we checked into this place we stayed on the Ft. Worth side of town in another Super 8 which was really wonderful so I really had a side by side comparison! We arrived late on a Thursday afternoon and were horrified when we pulled up to find that the location was seedy at best and the placed looked absolutely nothing like the pictures posted on any of the websites we'd visited prior to booking. When I went to check in, the lobby was practically empty and a young and very uninterested (aka not very customer service oriented) kid was behind the desk listening to his Ipod. While I was waiting for him to notice me, a homeless man came by and started digging thru the garbage can! That should have been our first clue but still we checked in and made the trek up to the second floor (outside and stairs only, no elevator). The second thing that turned us off about this location was that all of the rooms were accessed outside and a lot of unsavory type people were hanging around the walkways and in rooms with the doors open. It looked like a halfway house parking lot party rather than a Super 8 (trust me when I say this because I live in another big city and this had to be bad to scare me). Once inside we noticed that the room had nothing on the walls to cover the 20 year old paint, the carpet was ripped and stained, the bathroom was absolutely filthy, the desk chair was covered in stains, there was no comforter or fitted sheet on the bed nor was there a microwave or refrigerator as described on the website. We also couldn't seem to locate the WiFi they promised. We sat down for a minute than realized there were probably bed bugs and jumped up and I immediately called down to the desk realizing I couldn't deal with this place and wanted to cancel and leave but it just rang and rang and no one answered. We quickly decided we had to go because not only was I uncomfortable staying there but I couldn't shake the feeling someone was going to steal our rental car downstairs! So I got on the phone with the corporate Customer Service for Super 8 and explained to them how disgusting and horrible the whole thing was and that I wanted my money back and I wanted to go to another hotel. They told me to go down to the lobby and explain the situation to them and that if I had any problems to call them back directly and file a complaint. So I went down with my husband to find that at about 6pm they had already locked all the doors (not a good sign) and the reason I couldn't' get thru on the desk phone was because the kid was back on the Ipod. When we finally got his attention ringing the bell and banging on the door, I explained to that I wanted a refund and the place was the most disgusting thing I'd ever seen. Needless to say he didn't look surprised AT ALL, which is pretty sad. He then argued with me and I explained that I'd already spoken with the corporate office and he was going to refund me and I was leaving. Then he went in the back room and started making phone calls. Finally he asked what was wrong with the room and when I started rattling things off he grabbed a key and started walking out of the lobby. My husband called after him and asked where he was going. He looked at us blankly then we finally realized he was going to check the room. Well this really set me off and I started barreling after him telling him he couldn't just enter the room with our personal belongings without clearing it with us first and that it really didn't matter what he found because he was refunding me and I was leaving. So of course we had to follow him up and point everything out (which he didn't have a single comment on nor did he seem very concerned) but he finally just said bring your stuff down. So he ran out and we lugged our stuff back down to the lobby where again the door was locked. At this point I noticed what appeared to be the owners quarters behind the office where an entire family was sitting so for the life of me I cannot figure out why the kid spent the entire time on the phone instead of getting the owner out there to deal with me directly. Finally after much argument, where he wrote cancel on all of our paperwork and told me that the had only pre-authorized my credit card so I'd see it fall off in a few days. This just happened so I'll be watching my card like a hawk the next day or two to see if I'll need to involve Super 8 corporate again or my credit card company to get this straightened out. I just couldn't wait to post a review that might keep someone else from making the same mistake I did because it was that bad! We ran out so fast we didn't take any pictures but I really wish we had because you'd have to see it to believe it.The next day we drove by the place again and this time there were cop cars out front so I'm really glad we went with our gut and got out. I don't believe for a second that the pictures posted on these websites aren't either 20 years old or doctored and I also don't believe for a second that any review higher than a 1 isn't planted. I can't believe that Super 8 hasn't closed this place down and lets them keep their name.  All I can say is DO NOT STAY AT THIS PLACE! There are plenty of other nice Super 8's in the area for the same price. We left this one and went to another one about 5 miles away that was the same price and a world of difference!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>My husband and I booked this room for 2 nights in advance because the location seemed good and the price was right. We weren't expecting anything fancy, just bare bones but safe and comfortable. Believe me when I say we are low maintenance and it would take A LOT of horror to turn us away from a hotel. Let me also just preface this review by letting you know that the two nights before we checked into this place we stayed on the Ft. Worth side of town in another Super 8 which was really wonderful so I really had a side by side comparison! We arrived late on a Thursday afternoon and were horrified when we pulled up to find that the location was seedy at best and the placed looked absolutely nothing like the pictures posted on any of the websites we'd visited prior to booking. When I went to check in, the lobby was practically empty and a young and very uninterested (aka not very customer service oriented) kid was behind the desk listening to his Ipod. While I was waiting for him to notice me, a homeless man came by and started digging thru the garbage can! That should have been our first clue but still we checked in and made the trek up to the second floor (outside and stairs only, no elevator). The second thing that turned us off about this location was that...My husband and I booked this room for 2 nights in advance because the location seemed good and the price was right. We weren't expecting anything fancy, just bare bones but safe and comfortable. Believe me when I say we are low maintenance and it would take A LOT of horror to turn us away from a hotel. Let me also just preface this review by letting you know that the two nights before we checked into this place we stayed on the Ft. Worth side of town in another Super 8 which was really wonderful so I really had a side by side comparison! We arrived late on a Thursday afternoon and were horrified when we pulled up to find that the location was seedy at best and the placed looked absolutely nothing like the pictures posted on any of the websites we'd visited prior to booking. When I went to check in, the lobby was practically empty and a young and very uninterested (aka not very customer service oriented) kid was behind the desk listening to his Ipod. While I was waiting for him to notice me, a homeless man came by and started digging thru the garbage can! That should have been our first clue but still we checked in and made the trek up to the second floor (outside and stairs only, no elevator). The second thing that turned us off about this location was that all of the rooms were accessed outside and a lot of unsavory type people were hanging around the walkways and in rooms with the doors open. It looked like a halfway house parking lot party rather than a Super 8 (trust me when I say this because I live in another big city and this had to be bad to scare me). Once inside we noticed that the room had nothing on the walls to cover the 20 year old paint, the carpet was ripped and stained, the bathroom was absolutely filthy, the desk chair was covered in stains, there was no comforter or fitted sheet on the bed nor was there a microwave or refrigerator as described on the website. We also couldn't seem to locate the WiFi they promised. We sat down for a minute than realized there were probably bed bugs and jumped up and I immediately called down to the desk realizing I couldn't deal with this place and wanted to cancel and leave but it just rang and rang and no one answered. We quickly decided we had to go because not only was I uncomfortable staying there but I couldn't shake the feeling someone was going to steal our rental car downstairs! So I got on the phone with the corporate Customer Service for Super 8 and explained to them how disgusting and horrible the whole thing was and that I wanted my money back and I wanted to go to another hotel. They told me to go down to the lobby and explain the situation to them and that if I had any problems to call them back directly and file a complaint. So I went down with my husband to find that at about 6pm they had already locked all the doors (not a good sign) and the reason I couldn't' get thru on the desk phone was because the kid was back on the Ipod. When we finally got his attention ringing the bell and banging on the door, I explained to that I wanted a refund and the place was the most disgusting thing I'd ever seen. Needless to say he didn't look surprised AT ALL, which is pretty sad. He then argued with me and I explained that I'd already spoken with the corporate office and he was going to refund me and I was leaving. Then he went in the back room and started making phone calls. Finally he asked what was wrong with the room and when I started rattling things off he grabbed a key and started walking out of the lobby. My husband called after him and asked where he was going. He looked at us blankly then we finally realized he was going to check the room. Well this really set me off and I started barreling after him telling him he couldn't just enter the room with our personal belongings without clearing it with us first and that it really didn't matter what he found because he was refunding me and I was leaving. So of course we had to follow him up and point everything out (which he didn't have a single comment on nor did he seem very concerned) but he finally just said bring your stuff down. So he ran out and we lugged our stuff back down to the lobby where again the door was locked. At this point I noticed what appeared to be the owners quarters behind the office where an entire family was sitting so for the life of me I cannot figure out why the kid spent the entire time on the phone instead of getting the owner out there to deal with me directly. Finally after much argument, where he wrote cancel on all of our paperwork and told me that the had only pre-authorized my credit card so I'd see it fall off in a few days. This just happened so I'll be watching my card like a hawk the next day or two to see if I'll need to involve Super 8 corporate again or my credit card company to get this straightened out. I just couldn't wait to post a review that might keep someone else from making the same mistake I did because it was that bad! We ran out so fast we didn't take any pictures but I really wish we had because you'd have to see it to believe it.The next day we drove by the place again and this time there were cop cars out front so I'm really glad we went with our gut and got out. I don't believe for a second that the pictures posted on these websites aren't either 20 years old or doctored and I also don't believe for a second that any review higher than a 1 isn't planted. I can't believe that Super 8 hasn't closed this place down and lets them keep their name.  All I can say is DO NOT STAY AT THIS PLACE! There are plenty of other nice Super 8's in the area for the same price. We left this one and went to another one about 5 miles away that was the same price and a world of difference!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r123317555-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>123317555</t>
+  </si>
+  <si>
+    <t>01/19/2012</t>
+  </si>
+  <si>
+    <t>This place is a death wish if you can stay there!</t>
+  </si>
+  <si>
+    <t>This is the only place in Dallas that listed a smoking room, thats what got my  eye. The 14 foot fence with razor wire on top really caught my eye but we still tried to get to place even  tho Dildoe St was at the back of the Motel. The guy let me look  at the room first before check in, after sister &amp; I  looked at the nasty, dirty &amp; stained EVERYTHING,I took him back the key &amp; was told it is too late to cancel,so I was charged $67 &amp; went down the road &amp; stayed at the Holiday Inn Express (non-smoking but great room for $94)</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r115323010-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>115323010</t>
+  </si>
+  <si>
+    <t>07/13/2011</t>
+  </si>
+  <si>
+    <t>Very nice place to stay.</t>
+  </si>
+  <si>
+    <t>I stayed for 7 nights becoz of Excellent very Large size rooms, comfortable and very clean atmosphere, good breakfast, nice pool, and most importantly very secure parking for vehicles esp in Dallas city area, nice bedside jacuzzi experience, and especially very caring, helpful and courteous staff esp. Laxman, aayapa, Kalyan and Owner himself takes lot care of all the matters...A very nice place to stay in Dallas which is experience is not usually found in city motels..Shepherd</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r114828268-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>114828268</t>
+  </si>
+  <si>
+    <t>06/28/2011</t>
+  </si>
+  <si>
+    <t>nice people and very convienent</t>
+  </si>
+  <si>
+    <t>needed a place for the night on my way to Houston very clean and very nice people</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r80471947-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>80471947</t>
+  </si>
+  <si>
+    <t>09/21/2010</t>
+  </si>
+  <si>
+    <t>BED BUGS</t>
+  </si>
+  <si>
+    <t>After working 18 hours wanted to sleep and turn  off the lights and went to bed  the bed bugs came out to eat biting is worse than a mosquito bite a week later i still have the bites hte manager didnt even care after i told him left the hotel and sleep in the car dont go</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r58334773-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>58334773</t>
+  </si>
+  <si>
+    <t>03/11/2010</t>
+  </si>
+  <si>
+    <t>Typical Super8- Good!</t>
+  </si>
+  <si>
+    <t>This is a typical Super8 hotel- no thrills but good value.Check-in efficent. Room clean and tidy. Good wireless internet access. We found a local mexican restaurant in the Wal-mart centre on the opposite side of the freeway. Area is dry, so be prepared to show your driving licence if you want a beer!Like many of these hotels (other brands as well) proximity to freeway means traffic noise at night, so don't plan on a full sleep!Overall, no major complaints for the money.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r24847301-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>24847301</t>
+  </si>
+  <si>
+    <t>02/20/2009</t>
+  </si>
+  <si>
+    <t>It was AWESOME</t>
+  </si>
+  <si>
+    <t>We stayed at this motel for 2 nights when visiting family. My wife, 3 year, and 8 year old, got a king suite. It was big, just what we needed with both kids. Very clean and the bed was very comfortable. Kids loved the Waffles.  The hotel has very big lobby but little business area. Pool looked great but weather too cold so, we did not use. Staff was very friendly. Unfortunately, it is very close to the highway so you could hear a little bit of traffic from our room. But overall I would definitely come back and recommend to others.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r8472595-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>8472595</t>
+  </si>
+  <si>
+    <t>08/21/2007</t>
+  </si>
+  <si>
+    <t>small but great place to stay in I-30</t>
+  </si>
+  <si>
+    <t>one of the best place on I-30 dallas or mesquite to stay at. This motel probably have 40 to 50 rooms but the are great, nicely renovated and very friendly staff. Seems like new management.very hard to find at economy level motels now a days. great lobby and a  great breakffast. I would to love to stay at this motel again and again.</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r4827794-Super_8_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>4827794</t>
+  </si>
+  <si>
+    <t>04/01/2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never Again  </t>
+  </si>
+  <si>
+    <t>Rooms were not clean.  Toiletries were not provided.  We were on a trip with 2 other couples.  Two couples stayed in one room, and the other couple stayed in another room.  We were accused of having 12+ people staying in one room. ???  How is that possible when we only had 3 motorcycles. ???  Our room only had 1 towell.  When we asked for more the next morning, we were accused of having extra people in room.  Very rude service.  We will never stay at this motel again.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1564,3779 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>128</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L18" t="s">
+        <v>136</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>137</v>
+      </c>
+      <c r="O18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>137</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" t="s">
+        <v>145</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>146</v>
+      </c>
+      <c r="O20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>146</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" t="s">
+        <v>156</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>146</v>
+      </c>
+      <c r="O22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>158</v>
+      </c>
+      <c r="J23" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" t="s">
+        <v>160</v>
+      </c>
+      <c r="L23" t="s">
+        <v>161</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>162</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" t="s">
+        <v>167</v>
+      </c>
+      <c r="L24" t="s">
+        <v>168</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>162</v>
+      </c>
+      <c r="O24" t="s">
+        <v>169</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>171</v>
+      </c>
+      <c r="J25" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>173</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>175</v>
+      </c>
+      <c r="J26" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" t="s">
+        <v>177</v>
+      </c>
+      <c r="L26" t="s">
+        <v>178</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>173</v>
+      </c>
+      <c r="O26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27" t="s">
+        <v>176</v>
+      </c>
+      <c r="K27" t="s">
+        <v>181</v>
+      </c>
+      <c r="L27" t="s">
+        <v>182</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>173</v>
+      </c>
+      <c r="O27" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>184</v>
+      </c>
+      <c r="J28" t="s">
+        <v>176</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>173</v>
+      </c>
+      <c r="O28" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>185</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>186</v>
+      </c>
+      <c r="J29" t="s">
+        <v>187</v>
+      </c>
+      <c r="K29" t="s">
+        <v>188</v>
+      </c>
+      <c r="L29" t="s">
+        <v>189</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>190</v>
+      </c>
+      <c r="O29" t="s">
+        <v>169</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>192</v>
+      </c>
+      <c r="J30" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s">
+        <v>151</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>194</v>
+      </c>
+      <c r="O30" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>195</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>196</v>
+      </c>
+      <c r="J31" t="s">
+        <v>197</v>
+      </c>
+      <c r="K31" t="s">
+        <v>198</v>
+      </c>
+      <c r="L31" t="s">
+        <v>199</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>201</v>
+      </c>
+      <c r="J32" t="s">
+        <v>202</v>
+      </c>
+      <c r="K32" t="s">
+        <v>203</v>
+      </c>
+      <c r="L32" t="s">
+        <v>204</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>205</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>207</v>
+      </c>
+      <c r="J33" t="s">
+        <v>208</v>
+      </c>
+      <c r="K33" t="s">
+        <v>209</v>
+      </c>
+      <c r="L33" t="s">
+        <v>210</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>211</v>
+      </c>
+      <c r="O33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>212</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>213</v>
+      </c>
+      <c r="J34" t="s">
+        <v>214</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>215</v>
+      </c>
+      <c r="O34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>217</v>
+      </c>
+      <c r="J35" t="s">
+        <v>218</v>
+      </c>
+      <c r="K35" t="s">
+        <v>219</v>
+      </c>
+      <c r="L35" t="s">
+        <v>220</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>215</v>
+      </c>
+      <c r="O35" t="s">
+        <v>169</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>222</v>
+      </c>
+      <c r="J36" t="s">
+        <v>223</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s">
+        <v>151</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>224</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>225</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>226</v>
+      </c>
+      <c r="J37" t="s">
+        <v>227</v>
+      </c>
+      <c r="K37" t="s">
+        <v>228</v>
+      </c>
+      <c r="L37" t="s">
+        <v>229</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>230</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>231</v>
+      </c>
+      <c r="J38" t="s">
+        <v>232</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s">
+        <v>151</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>233</v>
+      </c>
+      <c r="O38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>234</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>235</v>
+      </c>
+      <c r="J39" t="s">
+        <v>236</v>
+      </c>
+      <c r="K39" t="s">
+        <v>237</v>
+      </c>
+      <c r="L39" t="s">
+        <v>238</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>233</v>
+      </c>
+      <c r="O39" t="s">
+        <v>169</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>240</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>241</v>
+      </c>
+      <c r="J40" t="s">
+        <v>242</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>243</v>
+      </c>
+      <c r="O40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>244</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>245</v>
+      </c>
+      <c r="J41" t="s">
+        <v>246</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>247</v>
+      </c>
+      <c r="O41" t="s">
+        <v>169</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>248</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>249</v>
+      </c>
+      <c r="J42" t="s">
+        <v>250</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>251</v>
+      </c>
+      <c r="O42" t="s">
+        <v>70</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>252</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>253</v>
+      </c>
+      <c r="J43" t="s">
+        <v>254</v>
+      </c>
+      <c r="K43" t="s">
+        <v>255</v>
+      </c>
+      <c r="L43" t="s">
+        <v>256</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>257</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>258</v>
+      </c>
+      <c r="J44" t="s">
+        <v>259</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>260</v>
+      </c>
+      <c r="O44" t="s">
+        <v>169</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>262</v>
+      </c>
+      <c r="J45" t="s">
+        <v>263</v>
+      </c>
+      <c r="K45" t="s">
+        <v>264</v>
+      </c>
+      <c r="L45" t="s">
+        <v>265</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>266</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>268</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>269</v>
+      </c>
+      <c r="J46" t="s">
+        <v>270</v>
+      </c>
+      <c r="K46" t="s">
+        <v>271</v>
+      </c>
+      <c r="L46" t="s">
+        <v>272</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>273</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>274</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>275</v>
+      </c>
+      <c r="J47" t="s">
+        <v>276</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>277</v>
+      </c>
+      <c r="O47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>278</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>279</v>
+      </c>
+      <c r="J48" t="s">
+        <v>280</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s">
+        <v>151</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>281</v>
+      </c>
+      <c r="O48" t="s">
+        <v>70</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>282</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>283</v>
+      </c>
+      <c r="J49" t="s">
+        <v>284</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>281</v>
+      </c>
+      <c r="O49" t="s">
+        <v>169</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>285</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>286</v>
+      </c>
+      <c r="J50" t="s">
+        <v>287</v>
+      </c>
+      <c r="K50" t="s">
+        <v>288</v>
+      </c>
+      <c r="L50" t="s">
+        <v>289</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>290</v>
+      </c>
+      <c r="O50" t="s">
+        <v>82</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>291</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>292</v>
+      </c>
+      <c r="J51" t="s">
+        <v>293</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>290</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>294</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>295</v>
+      </c>
+      <c r="J52" t="s">
+        <v>296</v>
+      </c>
+      <c r="K52" t="s">
+        <v>297</v>
+      </c>
+      <c r="L52" t="s">
+        <v>298</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>299</v>
+      </c>
+      <c r="O52" t="s">
+        <v>82</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>301</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>302</v>
+      </c>
+      <c r="J53" t="s">
+        <v>303</v>
+      </c>
+      <c r="K53" t="s">
+        <v>304</v>
+      </c>
+      <c r="L53" t="s">
+        <v>305</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>306</v>
+      </c>
+      <c r="O53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>307</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>308</v>
+      </c>
+      <c r="J54" t="s">
+        <v>309</v>
+      </c>
+      <c r="K54" t="s">
+        <v>310</v>
+      </c>
+      <c r="L54" t="s">
+        <v>311</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>312</v>
+      </c>
+      <c r="O54" t="s">
+        <v>169</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>313</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>314</v>
+      </c>
+      <c r="J55" t="s">
+        <v>315</v>
+      </c>
+      <c r="K55" t="s">
+        <v>316</v>
+      </c>
+      <c r="L55" t="s">
+        <v>317</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>318</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>319</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>320</v>
+      </c>
+      <c r="J56" t="s">
+        <v>321</v>
+      </c>
+      <c r="K56" t="s">
+        <v>322</v>
+      </c>
+      <c r="L56" t="s">
+        <v>323</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>324</v>
+      </c>
+      <c r="O56" t="s">
+        <v>169</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>325</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>326</v>
+      </c>
+      <c r="J57" t="s">
+        <v>327</v>
+      </c>
+      <c r="K57" t="s">
+        <v>328</v>
+      </c>
+      <c r="L57" t="s">
+        <v>329</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>330</v>
+      </c>
+      <c r="O57" t="s">
+        <v>82</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>331</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>332</v>
+      </c>
+      <c r="J58" t="s">
+        <v>333</v>
+      </c>
+      <c r="K58" t="s">
+        <v>334</v>
+      </c>
+      <c r="L58" t="s">
+        <v>335</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>336</v>
+      </c>
+      <c r="O58" t="s">
+        <v>70</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>337</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>338</v>
+      </c>
+      <c r="J59" t="s">
+        <v>339</v>
+      </c>
+      <c r="K59" t="s">
+        <v>340</v>
+      </c>
+      <c r="L59" t="s">
+        <v>341</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>342</v>
+      </c>
+      <c r="O59" t="s">
+        <v>70</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>343</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>344</v>
+      </c>
+      <c r="J60" t="s">
+        <v>345</v>
+      </c>
+      <c r="K60" t="s">
+        <v>346</v>
+      </c>
+      <c r="L60" t="s">
+        <v>347</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_728.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_728.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="407">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>frederickd762</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>leona389</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r547958807-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -192,6 +198,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>522happyguest</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r547744145-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -210,6 +219,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>jenniferhY1912SK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r514836975-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>paulkP6341CG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r508127157-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -249,6 +264,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>frenchistaj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r506233706-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -267,6 +285,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>53haleys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r496911097-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -285,6 +306,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>J1641FEjeanc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r491554177-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -294,6 +318,9 @@
     <t>06/08/2017</t>
   </si>
   <si>
+    <t>robertpQ4033YK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r491356618-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -312,6 +339,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>marietted417</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r477997487-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -327,6 +357,9 @@
     <t>It was the worse motel I had experiences! Out side very filthy and old! Inside the room smell sting!There was huge woman period blood on maters cover sheet. I found it at 11:30pm, I used hotel phone call front desk, phone picked up and hung up, I dialed again twice and no answered.If you like clean and safe place for your night of sleep, DON'T come to this Super 8 Dallas.</t>
   </si>
   <si>
+    <t>Kimberly D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r472682088-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -342,6 +375,9 @@
     <t xml:space="preserve">Very nice staff, location was great. Breakfast - 30 minutes after it started, all that was left was waffle makings. Everything else was gone. Otherwise it was nice. If breakfast was watched by staff, it would have rated much better. </t>
   </si>
   <si>
+    <t>covergurl2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r472500082-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -360,6 +396,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>caglea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r452060195-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -372,6 +411,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Gina D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r448781213-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -387,6 +429,9 @@
     <t>Dirty outside, stairwells filthy, also unswept trash. Room reeks of smoke. Terrible bed. Is the bed an air mattress?? Very uncomfortable!  Hair dyer out-of-order. TV has a strange cord hanging from the front of it. Turns out it is a sensor for the remote -- so you need to position this cord just so in order to change the channel on the TV. This is the worst Super 8. Paid $70.00 -- not worth the money!</t>
   </si>
   <si>
+    <t>hollandr439</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r447324254-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -405,6 +450,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>789crawfordm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r446097433-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -414,6 +462,9 @@
     <t>12/22/2016</t>
   </si>
   <si>
+    <t>509kaitlinv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r432950736-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -432,6 +483,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>V8885RLjacks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r430358113-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -441,6 +495,9 @@
     <t>10/21/2016</t>
   </si>
   <si>
+    <t>jessicagK4865XY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r421743346-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -462,6 +519,9 @@
     <t>The bathroom trash can, had previous persons trash underneath the liner. Housekeeping did not do job correctly. The drawers had graffiti inside with inappropriate language written. Easy fix to paint over it, but hotel may be to cheap to fix it. The tv in room had scratches on it all over. Like if someone took a knife and scratched it. So obviously when tv was on the picture was horrible. The housekeeper kept trying to barge in the room an 1 1/2 before check out time to come in and clean while we were still in the room! I repeatedly told her we still had time and she kept trying to open the door, very unprofessional!More</t>
   </si>
   <si>
+    <t>z0mbettie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r420368194-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -477,6 +537,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>21douglasr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r420318970-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -489,6 +552,9 @@
     <t>We had an important appointment and was unable to get a room at our previous hotel. We went on line and found this location the price was affordable and we received excellent service and the room was great. The most comfortable bed ever!!</t>
   </si>
   <si>
+    <t>deborahpH7119PB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r413524488-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -510,6 +576,9 @@
     <t>The hotel needs a remake over since its look run down. The room looked like it wasn't cleaned. There was trash in the trash cans.  The sheets and comforter looked like they weren't cleaned. Stains all over them. The door bolt was broken looked like it was broken into at one time. The shower leaked. Was suppose to stay the night. Was in town for a concert and when got back to hotel didn't feel safe that there was extra curricular activities going on upstairs.  Sketchy vehicles coming in and out. Plus the door to the room wasn't flesh to the door frame so there was a open space so see light outside. So we got back into the car and drove up to the office while was locked and try to talk to the man behind the  plexiglass window but couldn't really talk to him since you couldn't understand what he was saying since there wasn't any talk hold to speak through. So I basically paid for a room for the night for bags to stay for a couple of hours while I was at a concert. Will never go back. Not a safe place to be unless you look what's going on in the hotel.More</t>
   </si>
   <si>
+    <t>653clintr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r412809281-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -528,6 +597,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>769greenl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r411628617-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -540,6 +612,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Justin092016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r398636553-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -555,6 +630,9 @@
     <t>By the time i reached to this Super 8 i was tired due to a long journey and hours of driving. I never expected to get such a warm welcome and accommodating. Me and my family liked the stay and also the breakfast. In future i will look for more Super 8's this was a first time for me and my family staying at one.. It was a great stay !!</t>
   </si>
   <si>
+    <t>juanlZ3406DT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r398595168-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -567,12 +645,18 @@
     <t>Hotel Accomodation were very nice,front desk person was super friendly and very helpful. Furniture is little outdated but very comfortable bed. They have complementary breakfast that consisted cereal,pastry,yogurt,,coffee and juice. This is the one of the better Super 8 I have stayed inn. We would surely return in future.</t>
   </si>
   <si>
+    <t>t0lank</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r398591136-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>398591136</t>
   </si>
   <si>
+    <t>J1028NAmarkc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r381423191-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -591,6 +675,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>karolk232</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r367885252-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -603,6 +690,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Beth B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r364492390-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -618,6 +708,9 @@
     <t>This was the worst motel we have ever visited. The management was aware of inappropriate activities going on in motel. We were afraid to leave in the night and were so happy to see morning. Do NOT stay in the motel! The person at the desk made reference that we should stay in the front! Awful! Trust me... When we were asked if we were paying "cash" we knew it was bad. I did not sleep all night for worrying of the type of place we had trusted our life at! Run don't walk!</t>
   </si>
   <si>
+    <t>merrill l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r340350536-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -636,6 +729,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Zotsha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r326027952-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -654,6 +750,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>pauldD73VD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r322747294-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -666,6 +765,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Marie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r316446587-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -681,6 +783,9 @@
     <t xml:space="preserve">The people that checked me in, one had a short fuse. When I tried to ask a question heade me feel like an inconvenience. There was junk stacked in the lobby and breakfast ran out early.  </t>
   </si>
   <si>
+    <t>Kat V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r306388617-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -693,6 +798,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Nancy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r299218869-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -708,6 +816,9 @@
     <t>This is the chain Super 8 but a different location in Dallas, Texas.  The address I am reviewing is found at 9229 E. John W. Carpenter Fwy.  Other than being close to our visit sight this location is in a very old part of the city I think which made this area prone to crime and theft.  This motel took reservations that was truly very convenient at the end of our travel day from our home in Kansas City, Missouri.</t>
   </si>
   <si>
+    <t>Arthur J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r256239190-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -718,6 +829,9 @@
   </si>
   <si>
     <t>February 2015</t>
+  </si>
+  <si>
+    <t>Oblitersmash</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r255083821-Super_8_Dallas_East-Dallas_Texas.html</t>
@@ -742,6 +856,9 @@
   He resisted giving the refund at first, until he realized I was staying in the hotel with my band (we had rented a total of five rooms) upon realizing that we were all travelling together (no one was happy with their...I didn't even stay. I demanded my money back almost immediately after entering the room I had booked over 2 weeks in advance. The room was dirty and DID NOT look at all like the pictured room on the website (jacuzzi king suite). The jacuzzi was nothing like the jacuzzi pictured on the website either, it was not in the room next to the bed, it was just a deep tub with a couple of jets, no steps, nothing worth paying extra for. There were cigarette and blunt burns all over the edge of the sink and jacuzzi as well. There was a conjoined room next door as well which was not mentioned in the description either. I checked the door and it appeared as though that door didn't lock either, so a stranger could have just walked in from next door had they pleased!?  Upon informing the front desk of my dissatisfaction with the room (once again, booked over 2 weeks in advance) he responded to me "We almost cancelled your reservation because you arrived after midnight to check in". I responded "well go ahead and do it, cancel my room and give me my refund right now".   He resisted giving the refund at first, until he realized I was staying in the hotel with my band (we had rented a total of five rooms) upon realizing that we were all travelling together (no one was happy with their room, as none of the rooms were as described), and me threatening to call super 8 corporate right that moment (2:30am 2/14/2015 YEAH VALENTINES DAY NO LESS!) the staff finally gave in and issued a refund to everybody in my group. we ended up staying at the hilton garden inn marketplace about 15 minutes away, and they even worked with us after we informed them of our situation, they gave us a room from 5am to 11am the next day for the cost of a single day (and upon checkout they informed me that our rooms were reserved through the NEXT day, and that we could indeed stay at no additional cost, but alas, our plans couldnt be adjusted to enjoy the extra day)More</t>
   </si>
   <si>
+    <t>Wallace M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r251161495-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -754,6 +871,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Buddy G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r224428142-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -766,6 +886,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Keith B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r216079158-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -778,6 +901,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>danny R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r212407186-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -793,6 +919,9 @@
     <t xml:space="preserve">Great motel ! Loved the room the cleanliness was there, didn't expect it from a motel and the service was ok definitely staying here again ! Spacious rooms! And the price was not out of the question ! The housekeepers were nice </t>
   </si>
   <si>
+    <t>Jose M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r198456209-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -805,6 +934,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>JamesTP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r191656927-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -826,6 +958,9 @@
     <t>We are on a small road trip and have stayed in many similar motels recently. This particular Super 8 was notably poorer than others we have stayed in, so given the many choices you have, we wouldn't recommend that you choose this one. The motel is in an area of Dallas that seemed a little unsavoury to us. The staff not very helpful. The exterior is very run down and dirty and the pool was filled with plastic bags and trash. The room itself was acceptable, but the door was drafty and looked like it had been previously broken into. The road noise was very loud. Breakfast was present, but the area was dirty, coffee was cold etc.More</t>
   </si>
   <si>
+    <t>Crystal D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r166047786-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -844,6 +979,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Buel J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r148748123-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -856,6 +994,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>DEE C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r146819906-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -868,6 +1009,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>Johnlene K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r145987348-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -877,6 +1021,9 @@
     <t>11/22/2012</t>
   </si>
   <si>
+    <t>George_n_Lynn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r142980160-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -895,6 +1042,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>sewandas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r142427514-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -904,6 +1054,9 @@
     <t>10/09/2012</t>
   </si>
   <si>
+    <t>TravelinCowgrl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r141619040-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -925,6 +1078,9 @@
     <t>My husband and I booked this room for 2 nights in advance because the location seemed good and the price was right. We weren't expecting anything fancy, just bare bones but safe and comfortable. Believe me when I say we are low maintenance and it would take A LOT of horror to turn us away from a hotel. Let me also just preface this review by letting you know that the two nights before we checked into this place we stayed on the Ft. Worth side of town in another Super 8 which was really wonderful so I really had a side by side comparison! We arrived late on a Thursday afternoon and were horrified when we pulled up to find that the location was seedy at best and the placed looked absolutely nothing like the pictures posted on any of the websites we'd visited prior to booking. When I went to check in, the lobby was practically empty and a young and very uninterested (aka not very customer service oriented) kid was behind the desk listening to his Ipod. While I was waiting for him to notice me, a homeless man came by and started digging thru the garbage can! That should have been our first clue but still we checked in and made the trek up to the second floor (outside and stairs only, no elevator). The second thing that turned us off about this location was that...My husband and I booked this room for 2 nights in advance because the location seemed good and the price was right. We weren't expecting anything fancy, just bare bones but safe and comfortable. Believe me when I say we are low maintenance and it would take A LOT of horror to turn us away from a hotel. Let me also just preface this review by letting you know that the two nights before we checked into this place we stayed on the Ft. Worth side of town in another Super 8 which was really wonderful so I really had a side by side comparison! We arrived late on a Thursday afternoon and were horrified when we pulled up to find that the location was seedy at best and the placed looked absolutely nothing like the pictures posted on any of the websites we'd visited prior to booking. When I went to check in, the lobby was practically empty and a young and very uninterested (aka not very customer service oriented) kid was behind the desk listening to his Ipod. While I was waiting for him to notice me, a homeless man came by and started digging thru the garbage can! That should have been our first clue but still we checked in and made the trek up to the second floor (outside and stairs only, no elevator). The second thing that turned us off about this location was that all of the rooms were accessed outside and a lot of unsavory type people were hanging around the walkways and in rooms with the doors open. It looked like a halfway house parking lot party rather than a Super 8 (trust me when I say this because I live in another big city and this had to be bad to scare me). Once inside we noticed that the room had nothing on the walls to cover the 20 year old paint, the carpet was ripped and stained, the bathroom was absolutely filthy, the desk chair was covered in stains, there was no comforter or fitted sheet on the bed nor was there a microwave or refrigerator as described on the website. We also couldn't seem to locate the WiFi they promised. We sat down for a minute than realized there were probably bed bugs and jumped up and I immediately called down to the desk realizing I couldn't deal with this place and wanted to cancel and leave but it just rang and rang and no one answered. We quickly decided we had to go because not only was I uncomfortable staying there but I couldn't shake the feeling someone was going to steal our rental car downstairs! So I got on the phone with the corporate Customer Service for Super 8 and explained to them how disgusting and horrible the whole thing was and that I wanted my money back and I wanted to go to another hotel. They told me to go down to the lobby and explain the situation to them and that if I had any problems to call them back directly and file a complaint. So I went down with my husband to find that at about 6pm they had already locked all the doors (not a good sign) and the reason I couldn't' get thru on the desk phone was because the kid was back on the Ipod. When we finally got his attention ringing the bell and banging on the door, I explained to that I wanted a refund and the place was the most disgusting thing I'd ever seen. Needless to say he didn't look surprised AT ALL, which is pretty sad. He then argued with me and I explained that I'd already spoken with the corporate office and he was going to refund me and I was leaving. Then he went in the back room and started making phone calls. Finally he asked what was wrong with the room and when I started rattling things off he grabbed a key and started walking out of the lobby. My husband called after him and asked where he was going. He looked at us blankly then we finally realized he was going to check the room. Well this really set me off and I started barreling after him telling him he couldn't just enter the room with our personal belongings without clearing it with us first and that it really didn't matter what he found because he was refunding me and I was leaving. So of course we had to follow him up and point everything out (which he didn't have a single comment on nor did he seem very concerned) but he finally just said bring your stuff down. So he ran out and we lugged our stuff back down to the lobby where again the door was locked. At this point I noticed what appeared to be the owners quarters behind the office where an entire family was sitting so for the life of me I cannot figure out why the kid spent the entire time on the phone instead of getting the owner out there to deal with me directly. Finally after much argument, where he wrote cancel on all of our paperwork and told me that the had only pre-authorized my credit card so I'd see it fall off in a few days. This just happened so I'll be watching my card like a hawk the next day or two to see if I'll need to involve Super 8 corporate again or my credit card company to get this straightened out. I just couldn't wait to post a review that might keep someone else from making the same mistake I did because it was that bad! We ran out so fast we didn't take any pictures but I really wish we had because you'd have to see it to believe it.The next day we drove by the place again and this time there were cop cars out front so I'm really glad we went with our gut and got out. I don't believe for a second that the pictures posted on these websites aren't either 20 years old or doctored and I also don't believe for a second that any review higher than a 1 isn't planted. I can't believe that Super 8 hasn't closed this place down and lets them keep their name.  All I can say is DO NOT STAY AT THIS PLACE! There are plenty of other nice Super 8's in the area for the same price. We left this one and went to another one about 5 miles away that was the same price and a world of difference!More</t>
   </si>
   <si>
+    <t>gaddysdaddy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r123317555-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -943,6 +1099,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>Shepherdazad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r115323010-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -961,6 +1120,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>patti1950</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r114828268-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -979,6 +1141,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>salcedoh2o</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r80471947-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -997,6 +1162,9 @@
     <t>September 2010</t>
   </si>
   <si>
+    <t>shonerm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r58334773-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1015,6 +1183,9 @@
     <t>March 2010</t>
   </si>
   <si>
+    <t>Lionsclub79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r24847301-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1033,6 +1204,9 @@
     <t>February 2009</t>
   </si>
   <si>
+    <t>LoveToTravel061</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r8472595-Super_8_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1049,6 +1223,9 @@
   </si>
   <si>
     <t>June 2007</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r4827794-Super_8_Dallas_East-Dallas_Texas.html</t>
@@ -1568,43 +1745,47 @@
       <c r="A2" t="n">
         <v>17007</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178529</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -1628,35 +1809,39 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>17007</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178530</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1664,10 +1849,10 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1688,51 +1873,52 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>17007</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>178531</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>59</v>
       </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>57</v>
-      </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -1756,50 +1942,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>17007</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>178532</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1823,50 +2013,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>17007</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>178533</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
         <v>74</v>
-      </c>
-      <c r="L6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" t="s">
-        <v>70</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -1890,50 +2084,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>17007</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>178534</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -1957,50 +2155,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>17007</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178535</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -2024,35 +2226,39 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>17007</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>178536</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -2060,10 +2266,10 @@
         <v>3</v>
       </c>
       <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
         <v>88</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -2084,51 +2290,52 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>17007</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>178537</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2142,50 +2349,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>17007</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>178538</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -2209,50 +2420,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>17007</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>2818</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -2276,50 +2491,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>17007</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>178539</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -2343,35 +2562,39 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>17007</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>178540</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -2379,10 +2602,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2403,51 +2626,52 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>17007</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>6798</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2465,50 +2689,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>17007</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>178541</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="O16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2532,35 +2760,39 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>17007</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>178542</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="J17" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s"/>
@@ -2568,10 +2800,10 @@
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2592,51 +2824,52 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17007</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>178543</v>
+      </c>
+      <c r="C18" t="s">
+        <v>148</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="K18" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="L18" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="O18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2660,35 +2893,39 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>17007</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>178544</v>
+      </c>
+      <c r="C19" t="s">
+        <v>155</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
@@ -2696,10 +2933,10 @@
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="O19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -2720,51 +2957,52 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>17007</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>178545</v>
+      </c>
+      <c r="C20" t="s">
+        <v>159</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="K20" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2788,48 +3026,52 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>17007</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>178546</v>
+      </c>
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="J21" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2853,50 +3095,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>17007</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>178547</v>
+      </c>
+      <c r="C22" t="s">
+        <v>173</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="J22" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K22" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2920,50 +3166,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>17007</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>178548</v>
+      </c>
+      <c r="C23" t="s">
+        <v>178</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="J23" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="K23" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="L23" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -2987,50 +3237,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>17007</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>178549</v>
+      </c>
+      <c r="C24" t="s">
+        <v>186</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="J24" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="K24" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="O24" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -3054,35 +3308,39 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>17007</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>178550</v>
+      </c>
+      <c r="C25" t="s">
+        <v>193</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="J25" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
@@ -3090,10 +3348,10 @@
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3114,51 +3372,52 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>17007</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>178551</v>
+      </c>
+      <c r="C26" t="s">
+        <v>198</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="J26" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="K26" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="L26" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="O26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3178,50 +3437,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>17007</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>178552</v>
+      </c>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="J27" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="K27" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="O27" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3245,35 +3508,39 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>17007</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>178553</v>
+      </c>
+      <c r="C28" t="s">
+        <v>209</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="J28" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -3281,10 +3548,10 @@
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="O28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3305,51 +3572,52 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>17007</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>178554</v>
+      </c>
+      <c r="C29" t="s">
+        <v>212</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="J29" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="O29" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -3373,48 +3641,52 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>17007</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>178555</v>
+      </c>
+      <c r="C30" t="s">
+        <v>219</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="J30" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="O30" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3438,41 +3710,45 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>17007</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>2922</v>
+      </c>
+      <c r="C31" t="s">
+        <v>224</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="J31" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="K31" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="L31" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
@@ -3491,50 +3767,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>17007</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>178556</v>
+      </c>
+      <c r="C32" t="s">
+        <v>230</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="J32" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="K32" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="L32" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -3554,50 +3834,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>17007</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>31551</v>
+      </c>
+      <c r="C33" t="s">
+        <v>237</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="J33" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="K33" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="O33" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -3617,35 +3901,39 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>17007</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>178557</v>
+      </c>
+      <c r="C34" t="s">
+        <v>244</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="J34" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
@@ -3653,10 +3941,10 @@
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="O34" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3677,51 +3965,52 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>17007</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>14929</v>
+      </c>
+      <c r="C35" t="s">
+        <v>249</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="J35" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="K35" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="O35" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3745,48 +4034,52 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>17007</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>178558</v>
+      </c>
+      <c r="C36" t="s">
+        <v>255</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="J36" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="O36" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -3810,41 +4103,45 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>17007</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>1786</v>
+      </c>
+      <c r="C37" t="s">
+        <v>260</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="J37" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="K37" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="L37" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
@@ -3863,48 +4160,52 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>17007</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>10057</v>
+      </c>
+      <c r="C38" t="s">
+        <v>266</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="J38" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="O38" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -3928,50 +4229,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>17007</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>178559</v>
+      </c>
+      <c r="C39" t="s">
+        <v>271</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="J39" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="K39" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="L39" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="O39" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -3991,35 +4296,39 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>17007</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>34825</v>
+      </c>
+      <c r="C40" t="s">
+        <v>278</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="J40" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -4027,10 +4336,10 @@
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="O40" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4051,36 +4360,37 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>17007</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>61175</v>
+      </c>
+      <c r="C41" t="s">
+        <v>283</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="J41" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -4088,10 +4398,10 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="O41" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4112,36 +4422,37 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>17007</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>10175</v>
+      </c>
+      <c r="C42" t="s">
+        <v>288</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="J42" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -4149,10 +4460,10 @@
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="O42" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4173,42 +4484,43 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>17007</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>178560</v>
+      </c>
+      <c r="C43" t="s">
+        <v>293</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="J43" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="K43" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="L43" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
@@ -4237,35 +4549,39 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>17007</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>26802</v>
+      </c>
+      <c r="C44" t="s">
+        <v>299</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="J44" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
@@ -4273,10 +4589,10 @@
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="O44" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4297,51 +4613,52 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>17007</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>178561</v>
+      </c>
+      <c r="C45" t="s">
+        <v>304</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="J45" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="K45" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="L45" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4365,50 +4682,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>17007</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>87983</v>
+      </c>
+      <c r="C46" t="s">
+        <v>312</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="J46" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="K46" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="L46" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4432,35 +4753,39 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>17007</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>178562</v>
+      </c>
+      <c r="C47" t="s">
+        <v>319</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="J47" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s"/>
@@ -4468,10 +4793,10 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="O47" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -4492,49 +4817,50 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>17007</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>178563</v>
+      </c>
+      <c r="C48" t="s">
+        <v>324</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="J48" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="O48" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -4558,35 +4884,39 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>17007</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>178564</v>
+      </c>
+      <c r="C49" t="s">
+        <v>329</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="J49" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
@@ -4594,10 +4924,10 @@
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="O49" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -4618,51 +4948,52 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
-      <c r="Y49" t="s"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>17007</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>178565</v>
+      </c>
+      <c r="C50" t="s">
+        <v>333</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="J50" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="K50" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="L50" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="O50" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -4686,35 +5017,39 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>17007</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>178566</v>
+      </c>
+      <c r="C51" t="s">
+        <v>340</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="J51" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -4722,10 +5057,10 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -4744,51 +5079,52 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>17007</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>178567</v>
+      </c>
+      <c r="C52" t="s">
+        <v>344</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="J52" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="K52" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="L52" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>299</v>
+        <v>350</v>
       </c>
       <c r="O52" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -4812,50 +5148,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>17007</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>178568</v>
+      </c>
+      <c r="C53" t="s">
+        <v>352</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="J53" t="s">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="K53" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="L53" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="O53" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P53" t="n">
         <v>2</v>
@@ -4879,50 +5219,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>17007</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>178569</v>
+      </c>
+      <c r="C54" t="s">
+        <v>359</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="J54" t="s">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c r="K54" t="s">
-        <v>310</v>
+        <v>363</v>
       </c>
       <c r="L54" t="s">
-        <v>311</v>
+        <v>364</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>312</v>
+        <v>365</v>
       </c>
       <c r="O54" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -4942,50 +5286,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>311</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>17007</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>178570</v>
+      </c>
+      <c r="C55" t="s">
+        <v>366</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="J55" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="K55" t="s">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="L55" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5005,50 +5353,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>17007</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>178571</v>
+      </c>
+      <c r="C56" t="s">
+        <v>373</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>319</v>
+        <v>374</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>320</v>
+        <v>375</v>
       </c>
       <c r="J56" t="s">
-        <v>321</v>
+        <v>376</v>
       </c>
       <c r="K56" t="s">
-        <v>322</v>
+        <v>377</v>
       </c>
       <c r="L56" t="s">
-        <v>323</v>
+        <v>378</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>324</v>
+        <v>379</v>
       </c>
       <c r="O56" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -5072,50 +5424,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>323</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>17007</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>178572</v>
+      </c>
+      <c r="C57" t="s">
+        <v>380</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>325</v>
+        <v>381</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="J57" t="s">
-        <v>327</v>
+        <v>383</v>
       </c>
       <c r="K57" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="L57" t="s">
-        <v>329</v>
+        <v>385</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="O57" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -5139,50 +5495,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>329</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>17007</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>178573</v>
+      </c>
+      <c r="C58" t="s">
+        <v>387</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>331</v>
+        <v>388</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="J58" t="s">
-        <v>333</v>
+        <v>390</v>
       </c>
       <c r="K58" t="s">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="L58" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="O58" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -5206,50 +5566,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>17007</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>178574</v>
+      </c>
+      <c r="C59" t="s">
+        <v>394</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>337</v>
+        <v>395</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
       <c r="J59" t="s">
-        <v>339</v>
+        <v>397</v>
       </c>
       <c r="K59" t="s">
-        <v>340</v>
+        <v>398</v>
       </c>
       <c r="L59" t="s">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="O59" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5273,41 +5637,45 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>341</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>17007</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>401</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>343</v>
+        <v>402</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>344</v>
+        <v>403</v>
       </c>
       <c r="J60" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="K60" t="s">
-        <v>346</v>
+        <v>405</v>
       </c>
       <c r="L60" t="s">
-        <v>347</v>
+        <v>406</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
@@ -5334,7 +5702,7 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>347</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_728.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_728.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="548">
   <si>
     <t>STR#</t>
   </si>
@@ -150,13 +150,10 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>frederickd762</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r557785757-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r594152035-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>55711</t>
@@ -165,6 +162,60 @@
     <t>109407</t>
   </si>
   <si>
+    <t>594152035</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>DO NOT BOOK HERE</t>
+  </si>
+  <si>
+    <t>Location is by the highway, the outside looks trashy, our door to the room will not lock, as soon as you step inside it smelled of mold, the tv will turn on and off but doesn’t pick up any channels, the bed had a huge stain on at and some hair. The guy was nice who checked us in. That’s the only thing positive about this place. Save your money and spend it else where!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r568114823-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>568114823</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Feed back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very soft bed very quiet property  wasn’t  as clean as pefered but def will stay again if the little perks are resolved </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r558837899-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>558837899</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r557785757-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
     <t>557785757</t>
   </si>
   <si>
@@ -183,10 +234,7 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>leona389</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r547958807-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r547958807-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>547958807</t>
@@ -198,10 +246,7 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t>522happyguest</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r547744145-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r547744145-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>547744145</t>
@@ -219,10 +264,34 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>jenniferhY1912SK</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r514836975-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r546654194-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>546654194</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>Awesome service</t>
+  </si>
+  <si>
+    <t>This hotel was great. Front desk person was very friendly, I got to the room and my towels were missing but they took care of it promptly and with a smile! Will definitely be back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r535808072-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>535808072</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r514836975-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>514836975</t>
@@ -243,10 +312,7 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>paulkP6341CG</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r508127157-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r508127157-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>508127157</t>
@@ -264,10 +330,7 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t>frenchistaj</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r506233706-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r506233706-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>506233706</t>
@@ -282,13 +345,34 @@
     <t xml:space="preserve">I had to be switch to a different room due to the room not up to standard's. Burn marks on the tub the handle of the shower fell off. Carpet came up. I hated thjs room </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>53haleys</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r496911097-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r503292521-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>503292521</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r502333520-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>502333520</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Unhappy</t>
+  </si>
+  <si>
+    <t>This hotel felt dirty, the beds were uncomfortable, the dressers had a drawer missing, there wasn't a pot for the coffee maker or bulbs in the lamp. They brought us bulbs and a coffee pot, however the coffee pot didn't work the next morning. Very disappointed, especially for the price of the room.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r496911097-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>496911097</t>
@@ -303,13 +387,7 @@
     <t xml:space="preserve">Wasn't clean. Asked for a king room got a double bed asked for non smoking got smoking. Shower was disgusting. </t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
-    <t>J1641FEjeanc</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r491554177-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r491554177-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>491554177</t>
@@ -318,10 +396,7 @@
     <t>06/08/2017</t>
   </si>
   <si>
-    <t>robertpQ4033YK</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r491356618-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r491356618-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>491356618</t>
@@ -339,10 +414,40 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>marietted417</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r477997487-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r490109956-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>490109956</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r484481053-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>484481053</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>These people will do you dirty!</t>
+  </si>
+  <si>
+    <t>A year has passed since the church I pastor conducted a conference in the meeting room at this hotel.  The first day of the conference, thousands of dollars worth of audio and video equipment was stolen from the meeting room while we were out having lunch.  They have refused to even so much as recompense us the cost of the meeting room, never mind our thousands in losses of equipment.  My several attempts at contacting the parent company for Super 8 have all ended with them passing the buck, telling me that each location is independently owned and I need to take up with the local management.  So, when it is all said and done, you cannot get ANY help from the local management or the corporate!!!!!!!  It has been the most insane process I have ever been through in my life!  What really takes the cake is the fact that our church had been meeting at this location EVERY SINGLE SUNDAY for several months!  So these people do not even care about customer loyalty or retaining good, paying, consistent customers!  Stay here at your own risk!  IF THEY WILL TREAT AN ONGOING STEADY CUSTOMER LIKE THIS, IMAGINE WHAT THEY WILL DO TO SOME POOR SOUL WHO IS JUST PASSING THROUGH!  If your room gets broken into, which it well may considering the area the motel is in and the clientele they cater to, you will be up a creek...A year has passed since the church I pastor conducted a conference in the meeting room at this hotel.  The first day of the conference, thousands of dollars worth of audio and video equipment was stolen from the meeting room while we were out having lunch.  They have refused to even so much as recompense us the cost of the meeting room, never mind our thousands in losses of equipment.  My several attempts at contacting the parent company for Super 8 have all ended with them passing the buck, telling me that each location is independently owned and I need to take up with the local management.  So, when it is all said and done, you cannot get ANY help from the local management or the corporate!!!!!!!  It has been the most insane process I have ever been through in my life!  What really takes the cake is the fact that our church had been meeting at this location EVERY SINGLE SUNDAY for several months!  So these people do not even care about customer loyalty or retaining good, paying, consistent customers!  Stay here at your own risk!  IF THEY WILL TREAT AN ONGOING STEADY CUSTOMER LIKE THIS, IMAGINE WHAT THEY WILL DO TO SOME POOR SOUL WHO IS JUST PASSING THROUGH!  If your room gets broken into, which it well may considering the area the motel is in and the clientele they cater to, you will be up a creek without a paddle with no hope of recovering any of your losses.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>A year has passed since the church I pastor conducted a conference in the meeting room at this hotel.  The first day of the conference, thousands of dollars worth of audio and video equipment was stolen from the meeting room while we were out having lunch.  They have refused to even so much as recompense us the cost of the meeting room, never mind our thousands in losses of equipment.  My several attempts at contacting the parent company for Super 8 have all ended with them passing the buck, telling me that each location is independently owned and I need to take up with the local management.  So, when it is all said and done, you cannot get ANY help from the local management or the corporate!!!!!!!  It has been the most insane process I have ever been through in my life!  What really takes the cake is the fact that our church had been meeting at this location EVERY SINGLE SUNDAY for several months!  So these people do not even care about customer loyalty or retaining good, paying, consistent customers!  Stay here at your own risk!  IF THEY WILL TREAT AN ONGOING STEADY CUSTOMER LIKE THIS, IMAGINE WHAT THEY WILL DO TO SOME POOR SOUL WHO IS JUST PASSING THROUGH!  If your room gets broken into, which it well may considering the area the motel is in and the clientele they cater to, you will be up a creek...A year has passed since the church I pastor conducted a conference in the meeting room at this hotel.  The first day of the conference, thousands of dollars worth of audio and video equipment was stolen from the meeting room while we were out having lunch.  They have refused to even so much as recompense us the cost of the meeting room, never mind our thousands in losses of equipment.  My several attempts at contacting the parent company for Super 8 have all ended with them passing the buck, telling me that each location is independently owned and I need to take up with the local management.  So, when it is all said and done, you cannot get ANY help from the local management or the corporate!!!!!!!  It has been the most insane process I have ever been through in my life!  What really takes the cake is the fact that our church had been meeting at this location EVERY SINGLE SUNDAY for several months!  So these people do not even care about customer loyalty or retaining good, paying, consistent customers!  Stay here at your own risk!  IF THEY WILL TREAT AN ONGOING STEADY CUSTOMER LIKE THIS, IMAGINE WHAT THEY WILL DO TO SOME POOR SOUL WHO IS JUST PASSING THROUGH!  If your room gets broken into, which it well may considering the area the motel is in and the clientele they cater to, you will be up a creek without a paddle with no hope of recovering any of your losses.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r477997487-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>477997487</t>
@@ -357,10 +462,7 @@
     <t>It was the worse motel I had experiences! Out side very filthy and old! Inside the room smell sting!There was huge woman period blood on maters cover sheet. I found it at 11:30pm, I used hotel phone call front desk, phone picked up and hung up, I dialed again twice and no answered.If you like clean and safe place for your night of sleep, DON'T come to this Super 8 Dallas.</t>
   </si>
   <si>
-    <t>Kimberly D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r472682088-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r472682088-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>472682088</t>
@@ -375,10 +477,7 @@
     <t xml:space="preserve">Very nice staff, location was great. Breakfast - 30 minutes after it started, all that was left was waffle makings. Everything else was gone. Otherwise it was nice. If breakfast was watched by staff, it would have rated much better. </t>
   </si>
   <si>
-    <t>covergurl2017</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r472500082-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r472500082-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>472500082</t>
@@ -396,10 +495,34 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>caglea</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r452060195-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r471909229-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>471909229</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r460245935-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>460245935</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Nice quiet motel considering the location.  I've stayed at several other places in the same area and can honestly say that they can't compare to this motel.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r452060195-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>452060195</t>
@@ -411,10 +534,7 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t>Gina D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r448781213-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r448781213-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>448781213</t>
@@ -429,10 +549,7 @@
     <t>Dirty outside, stairwells filthy, also unswept trash. Room reeks of smoke. Terrible bed. Is the bed an air mattress?? Very uncomfortable!  Hair dyer out-of-order. TV has a strange cord hanging from the front of it. Turns out it is a sensor for the remote -- so you need to position this cord just so in order to change the channel on the TV. This is the worst Super 8. Paid $70.00 -- not worth the money!</t>
   </si>
   <si>
-    <t>hollandr439</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r447324254-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r447324254-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>447324254</t>
@@ -450,22 +567,37 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t>789crawfordm</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r446097433-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r446111079-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>446111079</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t>About my experience in the motel</t>
+  </si>
+  <si>
+    <t>I stayed at this super 8 with my family ,I really enjoyed my whole stay  and the main reason I like this place more because it is pretty close to Downton, we came here to Visit Dallas Zoo  and visit few more places ,we all enjoyed our trip and stay at this Super 8</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r446105968-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>446105968</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r446097433-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>446097433</t>
   </si>
   <si>
-    <t>12/22/2016</t>
-  </si>
-  <si>
-    <t>509kaitlinv</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r432950736-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r432950736-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>432950736</t>
@@ -483,10 +615,7 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t>V8885RLjacks</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r430358113-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r430358113-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>430358113</t>
@@ -495,10 +624,40 @@
     <t>10/21/2016</t>
   </si>
   <si>
-    <t>jessicagK4865XY</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r421743346-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r427753665-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>427753665</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>Looks better online</t>
+  </si>
+  <si>
+    <t>I found this hotel through Google maps, and it was one of the only ones close to Fair Park that still had rooms available on OU/TX weekend. It looked decent online, and the pricing was a little high, but being so close to the Cotton Bowl, I didn't mind... at first. When we arrived, we had to check in at a window outside, as the lobby was locked. Our room ended up being a smoking room, which they said I booked, even though online it never gave me the option to pick. The phone was broken as well and only one lamp worked. So they did change rooms for us, which was nice. Everything in the new room seemed to function, but the bed was worse than any hotel bed I've been in since I can remember. In order to get to the continental breakfast, they had to unlock the lobby doors to let you in. The lobby was mostly used for storage. I was very disappointed in the amount I paid for such an unkept hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I found this hotel through Google maps, and it was one of the only ones close to Fair Park that still had rooms available on OU/TX weekend. It looked decent online, and the pricing was a little high, but being so close to the Cotton Bowl, I didn't mind... at first. When we arrived, we had to check in at a window outside, as the lobby was locked. Our room ended up being a smoking room, which they said I booked, even though online it never gave me the option to pick. The phone was broken as well and only one lamp worked. So they did change rooms for us, which was nice. Everything in the new room seemed to function, but the bed was worse than any hotel bed I've been in since I can remember. In order to get to the continental breakfast, they had to unlock the lobby doors to let you in. The lobby was mostly used for storage. I was very disappointed in the amount I paid for such an unkept hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r426672930-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>426672930</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>Not up to Wyndham standards.</t>
+  </si>
+  <si>
+    <t>This appears to be an older property and  not up to Wyndham standards.  They are not using Wyndham products, the shower was hard to operate as it was a pull up lever in the bathtub, and the towels were small and scratchy as were the soap bars.  A shade closer to Motel 6 than Wyndham.  We were planning to stay another night, but left in the morning for a better motel elsewhere.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r421743346-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>421743346</t>
@@ -519,10 +678,7 @@
     <t>The bathroom trash can, had previous persons trash underneath the liner. Housekeeping did not do job correctly. The drawers had graffiti inside with inappropriate language written. Easy fix to paint over it, but hotel may be to cheap to fix it. The tv in room had scratches on it all over. Like if someone took a knife and scratched it. So obviously when tv was on the picture was horrible. The housekeeper kept trying to barge in the room an 1 1/2 before check out time to come in and clean while we were still in the room! I repeatedly told her we still had time and she kept trying to open the door, very unprofessional!More</t>
   </si>
   <si>
-    <t>z0mbettie</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r420368194-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r420368194-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>420368194</t>
@@ -537,10 +693,7 @@
     <t>More</t>
   </si>
   <si>
-    <t>21douglasr</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r420318970-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r420318970-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>420318970</t>
@@ -552,10 +705,31 @@
     <t>We had an important appointment and was unable to get a room at our previous hotel. We went on line and found this location the price was affordable and we received excellent service and the room was great. The most comfortable bed ever!!</t>
   </si>
   <si>
-    <t>deborahpH7119PB</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r413524488-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r417492882-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>417492882</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Room smelled</t>
+  </si>
+  <si>
+    <t>We have stayed here twice and this last time was worse.  The first was a few years ago and it has gone down hill since then.  It needs a major overhaul.  The room smelled very musty, the carpet was very stained and the door had a huge dent in it like a swat team tried to bust in.  It was cheap and close to the Gexa Energy Pavilion and that is why we stayed, but I doubt we will again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r416128069-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>416128069</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r413524488-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>413524488</t>
@@ -576,10 +750,7 @@
     <t>The hotel needs a remake over since its look run down. The room looked like it wasn't cleaned. There was trash in the trash cans.  The sheets and comforter looked like they weren't cleaned. Stains all over them. The door bolt was broken looked like it was broken into at one time. The shower leaked. Was suppose to stay the night. Was in town for a concert and when got back to hotel didn't feel safe that there was extra curricular activities going on upstairs.  Sketchy vehicles coming in and out. Plus the door to the room wasn't flesh to the door frame so there was a open space so see light outside. So we got back into the car and drove up to the office while was locked and try to talk to the man behind the  plexiglass window but couldn't really talk to him since you couldn't understand what he was saying since there wasn't any talk hold to speak through. So I basically paid for a room for the night for bags to stay for a couple of hours while I was at a concert. Will never go back. Not a safe place to be unless you look what's going on in the hotel.More</t>
   </si>
   <si>
-    <t>653clintr</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r412809281-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r412809281-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>412809281</t>
@@ -594,13 +765,7 @@
     <t>Sheets were dirty. Parking lot was noisy all night with loud music from a vehicle. Internet was not working. The young man on duty didn't seem to care about anything.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>769greenl</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r411628617-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r411628617-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>411628617</t>
@@ -612,10 +777,37 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>Justin092016</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r398636553-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r410828627-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>410828627</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Rundown</t>
+  </si>
+  <si>
+    <t>This place is rundown .It needs to alot of work. Nothing looked cleaned Breakfast was not appealing. We did not feel safe.  I would not recommend it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r400447986-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>400447986</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Modest but clean and acceptable</t>
+  </si>
+  <si>
+    <t>For what it is, a budget-focused hotel, it was a pleasant stay.  No frills but for basic accommodations, I had no complaints. Staff was courteous and it was priced reasonably.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r398636553-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>398636553</t>
@@ -630,10 +822,7 @@
     <t>By the time i reached to this Super 8 i was tired due to a long journey and hours of driving. I never expected to get such a warm welcome and accommodating. Me and my family liked the stay and also the breakfast. In future i will look for more Super 8's this was a first time for me and my family staying at one.. It was a great stay !!</t>
   </si>
   <si>
-    <t>juanlZ3406DT</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r398595168-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r398595168-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>398595168</t>
@@ -645,19 +834,40 @@
     <t>Hotel Accomodation were very nice,front desk person was super friendly and very helpful. Furniture is little outdated but very comfortable bed. They have complementary breakfast that consisted cereal,pastry,yogurt,,coffee and juice. This is the one of the better Super 8 I have stayed inn. We would surely return in future.</t>
   </si>
   <si>
-    <t>t0lank</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r398591136-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r398591136-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>398591136</t>
   </si>
   <si>
-    <t>J1028NAmarkc</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r381423191-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r398563065-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>398563065</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inexpensive and very nice place to stay. Great location, easy to get off and get on highway.  We didn't experience any problems. Comfortable clean rooms, and helpful, friendly staff. Everything was great. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r397962555-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>397962555</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>clean hotel</t>
+  </si>
+  <si>
+    <t>My room was nice and clean. Good price for stay. Staff was really nice. Good shower with lots of water pressure. Bed was very comfortable.Towels were soft, floor was nice and clean.The location is great... just a few minutes from downtown and GEXA energy pavilion. i would recommend to my friends and family..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r381423191-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>381423191</t>
@@ -672,13 +882,7 @@
     <t>Rude Staff,Night Desk Person unknowedglible, He did not know how to extend My stay.  Very Poor Area.(High Crime Area) Breakfast is a joke. Spotted a few roaches in the room.</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
-    <t>karolk232</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r367885252-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r367885252-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>367885252</t>
@@ -690,10 +894,7 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>Beth B</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r364492390-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r364492390-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>364492390</t>
@@ -708,10 +909,34 @@
     <t>This was the worst motel we have ever visited. The management was aware of inappropriate activities going on in motel. We were afraid to leave in the night and were so happy to see morning. Do NOT stay in the motel! The person at the desk made reference that we should stay in the front! Awful! Trust me... When we were asked if we were paying "cash" we knew it was bad. I did not sleep all night for worrying of the type of place we had trusted our life at! Run don't walk!</t>
   </si>
   <si>
-    <t>merrill l</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r340350536-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r362094773-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>362094773</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>great service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/01/1-04/03/16Room was cleanstaff was niceHAIRLESS pillows easy to locate fairly priced </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r360407264-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>360407264</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r340350536-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>340350536</t>
@@ -729,10 +954,7 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>Zotsha</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r326027952-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r326027952-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>326027952</t>
@@ -750,10 +972,7 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>pauldD73VD</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r322747294-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r322747294-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>322747294</t>
@@ -765,10 +984,34 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>Marie W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r316446587-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r322489957-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>322489957</t>
+  </si>
+  <si>
+    <t>October 27, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r321689844-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>321689844</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>Syringes</t>
+  </si>
+  <si>
+    <t>Everything was good until one day after work I came up to my room and noticed that all my clothes and belongings had been moved up off of the floor so that they could have the carpets cleaned. I was upset because I expect them to not touch any of my personal belongings and not to let anyone in my room other than housekeeping. After looking around they had also put a handful of syringes  on top of the dresser under the TV which really disturbed me. I have no idea what they were for. I think that they might have been left under the bed or something and they just noticed it when they cleaned the carpets. If that is the case, housekeeping is horrible.... Regardless I will never stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Everything was good until one day after work I came up to my room and noticed that all my clothes and belongings had been moved up off of the floor so that they could have the carpets cleaned. I was upset because I expect them to not touch any of my personal belongings and not to let anyone in my room other than housekeeping. After looking around they had also put a handful of syringes  on top of the dresser under the TV which really disturbed me. I have no idea what they were for. I think that they might have been left under the bed or something and they just noticed it when they cleaned the carpets. If that is the case, housekeeping is horrible.... Regardless I will never stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r316446587-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>316446587</t>
@@ -783,10 +1026,7 @@
     <t xml:space="preserve">The people that checked me in, one had a short fuse. When I tried to ask a question heade me feel like an inconvenience. There was junk stacked in the lobby and breakfast ran out early.  </t>
   </si>
   <si>
-    <t>Kat V</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r306388617-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r306388617-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>306388617</t>
@@ -798,10 +1038,7 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>Nancy R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r299218869-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r299218869-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>299218869</t>
@@ -816,10 +1053,40 @@
     <t>This is the chain Super 8 but a different location in Dallas, Texas.  The address I am reviewing is found at 9229 E. John W. Carpenter Fwy.  Other than being close to our visit sight this location is in a very old part of the city I think which made this area prone to crime and theft.  This motel took reservations that was truly very convenient at the end of our travel day from our home in Kansas City, Missouri.</t>
   </si>
   <si>
-    <t>Arthur J</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r256239190-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r286082488-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>286082488</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Rude Customer Service just to start with...</t>
+  </si>
+  <si>
+    <t>When I made the reservation it was under my name but the card used was in my husbands name. When checking in the clerk was rude to my husband and lectured him on the fact that there were two different names. When we got our key and went up to our room (after unloading everything and carrying our 8 month old up the steps) the key card they gave up did not work, so my husband had to go back down and deal with the front desk clerk (I believe he did not do something right when activating the card). They only had Analog TV and the remote didn't work half the time. The water pressure in the shower was horrible, plus I had to do some contortionists moves to even be able to wash my hair (I'm about 6' tall and the spray hit me at my neckline.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>When I made the reservation it was under my name but the card used was in my husbands name. When checking in the clerk was rude to my husband and lectured him on the fact that there were two different names. When we got our key and went up to our room (after unloading everything and carrying our 8 month old up the steps) the key card they gave up did not work, so my husband had to go back down and deal with the front desk clerk (I believe he did not do something right when activating the card). They only had Analog TV and the remote didn't work half the time. The water pressure in the shower was horrible, plus I had to do some contortionists moves to even be able to wash my hair (I'm about 6' tall and the spray hit me at my neckline.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r262980778-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>262980778</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r256239190-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>256239190</t>
@@ -831,10 +1098,7 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>Oblitersmash</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r255083821-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r255083821-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>255083821</t>
@@ -856,10 +1120,7 @@
   He resisted giving the refund at first, until he realized I was staying in the hotel with my band (we had rented a total of five rooms) upon realizing that we were all travelling together (no one was happy with their...I didn't even stay. I demanded my money back almost immediately after entering the room I had booked over 2 weeks in advance. The room was dirty and DID NOT look at all like the pictured room on the website (jacuzzi king suite). The jacuzzi was nothing like the jacuzzi pictured on the website either, it was not in the room next to the bed, it was just a deep tub with a couple of jets, no steps, nothing worth paying extra for. There were cigarette and blunt burns all over the edge of the sink and jacuzzi as well. There was a conjoined room next door as well which was not mentioned in the description either. I checked the door and it appeared as though that door didn't lock either, so a stranger could have just walked in from next door had they pleased!?  Upon informing the front desk of my dissatisfaction with the room (once again, booked over 2 weeks in advance) he responded to me "We almost cancelled your reservation because you arrived after midnight to check in". I responded "well go ahead and do it, cancel my room and give me my refund right now".   He resisted giving the refund at first, until he realized I was staying in the hotel with my band (we had rented a total of five rooms) upon realizing that we were all travelling together (no one was happy with their room, as none of the rooms were as described), and me threatening to call super 8 corporate right that moment (2:30am 2/14/2015 YEAH VALENTINES DAY NO LESS!) the staff finally gave in and issued a refund to everybody in my group. we ended up staying at the hilton garden inn marketplace about 15 minutes away, and they even worked with us after we informed them of our situation, they gave us a room from 5am to 11am the next day for the cost of a single day (and upon checkout they informed me that our rooms were reserved through the NEXT day, and that we could indeed stay at no additional cost, but alas, our plans couldnt be adjusted to enjoy the extra day)More</t>
   </si>
   <si>
-    <t>Wallace M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r251161495-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r251161495-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>251161495</t>
@@ -871,10 +1132,46 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>Buddy G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r224428142-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r236578878-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>236578878</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Property Well Taken Care Of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My first impression of the room was - clean - and that's all I care about.  It's an old property but obviously well maintained.  Staff is attentive &amp; kind.  The pool was under maintenance but I wasn't interested in swimming; the continental breakfast was a bit skimpy but I'm not usually interested in anything other than coffee.  Final word, I was pleased and would stay again. </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r230175586-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>230175586</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>Where We Worship</t>
+  </si>
+  <si>
+    <t>We moved to Dallas in June of 2013. We came here to start a  church but could not find a building that would meet our needs. We took a different approach and sought out a hotel conference room. When we went to the Super 8, i knew that was the place. The size of the conference room, price, and front desk service appealed to our needs. The owner Bhaveh Patel just recently purchased new theater chairs which even more so enhanced the look and atmosphere of the conference room. Folks that came to worship with us there complimented the change. I appreciate the the service, and staff hospitality from the Super 8 in Dallas Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>We moved to Dallas in June of 2013. We came here to start a  church but could not find a building that would meet our needs. We took a different approach and sought out a hotel conference room. When we went to the Super 8, i knew that was the place. The size of the conference room, price, and front desk service appealed to our needs. The owner Bhaveh Patel just recently purchased new theater chairs which even more so enhanced the look and atmosphere of the conference room. Folks that came to worship with us there complimented the change. I appreciate the the service, and staff hospitality from the Super 8 in Dallas Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r224428142-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>224428142</t>
@@ -886,10 +1183,7 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>Keith B</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r216079158-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r216079158-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>216079158</t>
@@ -901,10 +1195,7 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t>danny R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r212407186-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r212407186-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>212407186</t>
@@ -919,10 +1210,28 @@
     <t xml:space="preserve">Great motel ! Loved the room the cleanliness was there, didn't expect it from a motel and the service was ok definitely staying here again ! Spacious rooms! And the price was not out of the question ! The housekeepers were nice </t>
   </si>
   <si>
-    <t>Jose M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r198456209-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r212010598-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>212010598</t>
+  </si>
+  <si>
+    <t>06/25/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r205802977-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>205802977</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r198456209-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>198456209</t>
@@ -934,10 +1243,7 @@
     <t>March 2014</t>
   </si>
   <si>
-    <t>JamesTP</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r191656927-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r191656927-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>191656927</t>
@@ -958,10 +1264,7 @@
     <t>We are on a small road trip and have stayed in many similar motels recently. This particular Super 8 was notably poorer than others we have stayed in, so given the many choices you have, we wouldn't recommend that you choose this one. The motel is in an area of Dallas that seemed a little unsavoury to us. The staff not very helpful. The exterior is very run down and dirty and the pool was filled with plastic bags and trash. The room itself was acceptable, but the door was drafty and looked like it had been previously broken into. The road noise was very loud. Breakfast was present, but the area was dirty, coffee was cold etc.More</t>
   </si>
   <si>
-    <t>Crystal D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r166047786-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r166047786-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>166047786</t>
@@ -970,19 +1273,40 @@
     <t>07/02/2013</t>
   </si>
   <si>
-    <t>Great night</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I had a nice quiet great night sleep after a new kids on the block concert. I did not want to leave that bed. It was awesome. The people were nice. No troubles at all. I would totally stay there again. </t>
-  </si>
-  <si>
     <t>June 2013</t>
   </si>
   <si>
-    <t>Buel J</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r148748123-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r159993109-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>159993109</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Super8EastDallas, Manager at Super 8 by Wyndham Dallas East, responded to this reviewResponded May 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r151905991-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>151905991</t>
+  </si>
+  <si>
+    <t>02/11/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r148748123-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>148748123</t>
@@ -994,10 +1318,7 @@
     <t>January 2013</t>
   </si>
   <si>
-    <t>DEE C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r146819906-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r146819906-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>146819906</t>
@@ -1009,10 +1330,7 @@
     <t>November 2012</t>
   </si>
   <si>
-    <t>Johnlene K</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r145987348-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r145987348-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>145987348</t>
@@ -1021,31 +1339,46 @@
     <t>11/22/2012</t>
   </si>
   <si>
-    <t>George_n_Lynn</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r142980160-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r143135065-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>143135065</t>
+  </si>
+  <si>
+    <t>10/18/2012</t>
+  </si>
+  <si>
+    <t>Super 8 Experience</t>
+  </si>
+  <si>
+    <t>I did not know this part of Dallas well. I'd been to this part of town but was always reluctant to stay in this area. I'd stayed at lodging nearb that may have had more amenities and perjaps newer. When I finished a search of the area hotels I was mildly surprise to find that Super 8 had some of the same and even more 'jacuzzi suites". The service was excellent also. Although I'd checked in a day early the staff quickly made the adjustment. They accomodated reqest for a refrigerator, change of rooms, better wifi reception and made e feel like a guest versus a cstomer.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r143004716-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>143004716</t>
+  </si>
+  <si>
+    <t>10/16/2012</t>
+  </si>
+  <si>
+    <t>Never again!!!</t>
+  </si>
+  <si>
+    <t>So so room and the young men there truly were polite (that was the best part) - luke warm water  in the bathroom - no stopper in the tub. the internet did not work 3/4 of the time we were there - we had to get our room  keys re-programmed  EVERY time we tried to re-enter our room  (and we HAD kept them away from magnetic fields). We even had to ask them to make coffee each morning and then wait 20 to come back and find out that it would be another 20 minutes.The list could go on and on and on!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r142980160-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>142980160</t>
   </si>
   <si>
-    <t>10/16/2012</t>
-  </si>
-  <si>
-    <t>Worst Super 8 Night</t>
-  </si>
-  <si>
-    <t>- The room (114) reeked of cigarette smoke even though it is designated as a non-smoking room.- The fixtures and furniture looked good, but the plumbing was hard to use (knobs swapped and tough to turn), noisy, and inconsistent and the furniture was flimsy and clunky.- It took time to check out because a guy was negotiating the cash fee for his room-for-an-hour while a much younger woman sat looking bored in his car (ended as $45 for an hour down from $60).</t>
-  </si>
-  <si>
-    <t>October 2012</t>
-  </si>
-  <si>
-    <t>sewandas</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r142427514-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r142427514-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>142427514</t>
@@ -1054,10 +1387,7 @@
     <t>10/09/2012</t>
   </si>
   <si>
-    <t>TravelinCowgrl</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r141619040-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r141619040-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>141619040</t>
@@ -1078,10 +1408,57 @@
     <t>My husband and I booked this room for 2 nights in advance because the location seemed good and the price was right. We weren't expecting anything fancy, just bare bones but safe and comfortable. Believe me when I say we are low maintenance and it would take A LOT of horror to turn us away from a hotel. Let me also just preface this review by letting you know that the two nights before we checked into this place we stayed on the Ft. Worth side of town in another Super 8 which was really wonderful so I really had a side by side comparison! We arrived late on a Thursday afternoon and were horrified when we pulled up to find that the location was seedy at best and the placed looked absolutely nothing like the pictures posted on any of the websites we'd visited prior to booking. When I went to check in, the lobby was practically empty and a young and very uninterested (aka not very customer service oriented) kid was behind the desk listening to his Ipod. While I was waiting for him to notice me, a homeless man came by and started digging thru the garbage can! That should have been our first clue but still we checked in and made the trek up to the second floor (outside and stairs only, no elevator). The second thing that turned us off about this location was that...My husband and I booked this room for 2 nights in advance because the location seemed good and the price was right. We weren't expecting anything fancy, just bare bones but safe and comfortable. Believe me when I say we are low maintenance and it would take A LOT of horror to turn us away from a hotel. Let me also just preface this review by letting you know that the two nights before we checked into this place we stayed on the Ft. Worth side of town in another Super 8 which was really wonderful so I really had a side by side comparison! We arrived late on a Thursday afternoon and were horrified when we pulled up to find that the location was seedy at best and the placed looked absolutely nothing like the pictures posted on any of the websites we'd visited prior to booking. When I went to check in, the lobby was practically empty and a young and very uninterested (aka not very customer service oriented) kid was behind the desk listening to his Ipod. While I was waiting for him to notice me, a homeless man came by and started digging thru the garbage can! That should have been our first clue but still we checked in and made the trek up to the second floor (outside and stairs only, no elevator). The second thing that turned us off about this location was that all of the rooms were accessed outside and a lot of unsavory type people were hanging around the walkways and in rooms with the doors open. It looked like a halfway house parking lot party rather than a Super 8 (trust me when I say this because I live in another big city and this had to be bad to scare me). Once inside we noticed that the room had nothing on the walls to cover the 20 year old paint, the carpet was ripped and stained, the bathroom was absolutely filthy, the desk chair was covered in stains, there was no comforter or fitted sheet on the bed nor was there a microwave or refrigerator as described on the website. We also couldn't seem to locate the WiFi they promised. We sat down for a minute than realized there were probably bed bugs and jumped up and I immediately called down to the desk realizing I couldn't deal with this place and wanted to cancel and leave but it just rang and rang and no one answered. We quickly decided we had to go because not only was I uncomfortable staying there but I couldn't shake the feeling someone was going to steal our rental car downstairs! So I got on the phone with the corporate Customer Service for Super 8 and explained to them how disgusting and horrible the whole thing was and that I wanted my money back and I wanted to go to another hotel. They told me to go down to the lobby and explain the situation to them and that if I had any problems to call them back directly and file a complaint. So I went down with my husband to find that at about 6pm they had already locked all the doors (not a good sign) and the reason I couldn't' get thru on the desk phone was because the kid was back on the Ipod. When we finally got his attention ringing the bell and banging on the door, I explained to that I wanted a refund and the place was the most disgusting thing I'd ever seen. Needless to say he didn't look surprised AT ALL, which is pretty sad. He then argued with me and I explained that I'd already spoken with the corporate office and he was going to refund me and I was leaving. Then he went in the back room and started making phone calls. Finally he asked what was wrong with the room and when I started rattling things off he grabbed a key and started walking out of the lobby. My husband called after him and asked where he was going. He looked at us blankly then we finally realized he was going to check the room. Well this really set me off and I started barreling after him telling him he couldn't just enter the room with our personal belongings without clearing it with us first and that it really didn't matter what he found because he was refunding me and I was leaving. So of course we had to follow him up and point everything out (which he didn't have a single comment on nor did he seem very concerned) but he finally just said bring your stuff down. So he ran out and we lugged our stuff back down to the lobby where again the door was locked. At this point I noticed what appeared to be the owners quarters behind the office where an entire family was sitting so for the life of me I cannot figure out why the kid spent the entire time on the phone instead of getting the owner out there to deal with me directly. Finally after much argument, where he wrote cancel on all of our paperwork and told me that the had only pre-authorized my credit card so I'd see it fall off in a few days. This just happened so I'll be watching my card like a hawk the next day or two to see if I'll need to involve Super 8 corporate again or my credit card company to get this straightened out. I just couldn't wait to post a review that might keep someone else from making the same mistake I did because it was that bad! We ran out so fast we didn't take any pictures but I really wish we had because you'd have to see it to believe it.The next day we drove by the place again and this time there were cop cars out front so I'm really glad we went with our gut and got out. I don't believe for a second that the pictures posted on these websites aren't either 20 years old or doctored and I also don't believe for a second that any review higher than a 1 isn't planted. I can't believe that Super 8 hasn't closed this place down and lets them keep their name.  All I can say is DO NOT STAY AT THIS PLACE! There are plenty of other nice Super 8's in the area for the same price. We left this one and went to another one about 5 miles away that was the same price and a world of difference!More</t>
   </si>
   <si>
-    <t>gaddysdaddy</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r123317555-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r132445778-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>132445778</t>
+  </si>
+  <si>
+    <t>06/21/2012</t>
+  </si>
+  <si>
+    <t>Never again. . . never!</t>
+  </si>
+  <si>
+    <t>Booked this place several months in advance, to stay for a week, because me, my boyfriend, and my friend, were attending an Anime Convention(A-Kon 23) several miles away. Checking in, we were told we couldn't split payments between cash and a credit card, it had to be one or the other. When we got to the room, it was really hot, we turned on the air only to discover that the A/C didn't work. It's Texas, in the middle of summer. . . you kind of need that to work. 
+We made the front desk aware of the situation the next morning, and they quickly assigned us another room for the rest of the week, we just had to wait until the person in the room they were moving us to checked out. Then when they finally gave us the key to the new room, the last guest items were still in the room. Oops. So we had to wait several more hours.
+The service was okay, the maid assigned to our room for the week was nice, but hardly spoke English, which made communicating a bit difficult and a bit embarrassing. She knocked on the door, we yelled out, 'No, thank you' and she still came into the room. 
+Honestly, I thought 'No' meant the same in English as it did in Spanish. 
+Next would have to be the keycards. They knew we were staying a week, so our...Booked this place several months in advance, to stay for a week, because me, my boyfriend, and my friend, were attending an Anime Convention(A-Kon 23) several miles away. Checking in, we were told we couldn't split payments between cash and a credit card, it had to be one or the other. When we got to the room, it was really hot, we turned on the air only to discover that the A/C didn't work. It's Texas, in the middle of summer. . . you kind of need that to work. We made the front desk aware of the situation the next morning, and they quickly assigned us another room for the rest of the week, we just had to wait until the person in the room they were moving us to checked out. Then when they finally gave us the key to the new room, the last guest items were still in the room. Oops. So we had to wait several more hours.The service was okay, the maid assigned to our room for the week was nice, but hardly spoke English, which made communicating a bit difficult and a bit embarrassing. She knocked on the door, we yelled out, 'No, thank you' and she still came into the room. Honestly, I thought 'No' meant the same in English as it did in Spanish. Next would have to be the keycards. They knew we were staying a week, so our first keycard was set up to work for the week, but when they moved us to a different room, they only set it up to work for a day. So for several days, we had to go to the front desk and get our keycard reassigned to our room, so we could actually get inside. I can understand them forget the first day after the room change, but the second day? The third day? It was getting really old really quick.Now, about the location. . . where it's set up, you can't get to it immediately, you have to drive AWAY from the hotel, since it's down a one way street, you can't go down, even though it's right there next to you. You have to go ALL the way around, pass it, and then come back down to actually get into the entrance. But Denny's and McDonald's are within walking distance. So that was nice. And speaking of food, their Continental breakfast. . . their sign clearly stated it was from 6am to 11am or something like that. I went at 9am, there was no breakfast. We were quite disappointed and ended up going to Denny's again.Overall, the price was nice for a week's stay, but with all the little incidents, if I had to stay in this area again, I would choose to stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Booked this place several months in advance, to stay for a week, because me, my boyfriend, and my friend, were attending an Anime Convention(A-Kon 23) several miles away. Checking in, we were told we couldn't split payments between cash and a credit card, it had to be one or the other. When we got to the room, it was really hot, we turned on the air only to discover that the A/C didn't work. It's Texas, in the middle of summer. . . you kind of need that to work. 
+We made the front desk aware of the situation the next morning, and they quickly assigned us another room for the rest of the week, we just had to wait until the person in the room they were moving us to checked out. Then when they finally gave us the key to the new room, the last guest items were still in the room. Oops. So we had to wait several more hours.
+The service was okay, the maid assigned to our room for the week was nice, but hardly spoke English, which made communicating a bit difficult and a bit embarrassing. She knocked on the door, we yelled out, 'No, thank you' and she still came into the room. 
+Honestly, I thought 'No' meant the same in English as it did in Spanish. 
+Next would have to be the keycards. They knew we were staying a week, so our...Booked this place several months in advance, to stay for a week, because me, my boyfriend, and my friend, were attending an Anime Convention(A-Kon 23) several miles away. Checking in, we were told we couldn't split payments between cash and a credit card, it had to be one or the other. When we got to the room, it was really hot, we turned on the air only to discover that the A/C didn't work. It's Texas, in the middle of summer. . . you kind of need that to work. We made the front desk aware of the situation the next morning, and they quickly assigned us another room for the rest of the week, we just had to wait until the person in the room they were moving us to checked out. Then when they finally gave us the key to the new room, the last guest items were still in the room. Oops. So we had to wait several more hours.The service was okay, the maid assigned to our room for the week was nice, but hardly spoke English, which made communicating a bit difficult and a bit embarrassing. She knocked on the door, we yelled out, 'No, thank you' and she still came into the room. Honestly, I thought 'No' meant the same in English as it did in Spanish. Next would have to be the keycards. They knew we were staying a week, so our first keycard was set up to work for the week, but when they moved us to a different room, they only set it up to work for a day. So for several days, we had to go to the front desk and get our keycard reassigned to our room, so we could actually get inside. I can understand them forget the first day after the room change, but the second day? The third day? It was getting really old really quick.Now, about the location. . . where it's set up, you can't get to it immediately, you have to drive AWAY from the hotel, since it's down a one way street, you can't go down, even though it's right there next to you. You have to go ALL the way around, pass it, and then come back down to actually get into the entrance. But Denny's and McDonald's are within walking distance. So that was nice. And speaking of food, their Continental breakfast. . . their sign clearly stated it was from 6am to 11am or something like that. I went at 9am, there was no breakfast. We were quite disappointed and ended up going to Denny's again.Overall, the price was nice for a week's stay, but with all the little incidents, if I had to stay in this area again, I would choose to stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r126196215-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>126196215</t>
+  </si>
+  <si>
+    <t>03/16/2012</t>
+  </si>
+  <si>
+    <t>We paid in advance, with no refunds, and still did not stay.</t>
+  </si>
+  <si>
+    <t>This is my first review about a hotel, and I feel compelled to write it as a warning to other travelers.  My husband and I have stayed at many super 8s in the past, so we booked this place based on our past experiences.  We read the reviews, which were decidedly mixed, on other websites besides just Tripadvisor and decided we would chance it; we know everyone has different expectations and we are usually pretty easy going about these types of things. All we want is a clean, safe room to stay for the night.  However, this place was niether clean nor safe. Yes, it was cheap, and it's true you get what you pay for, but I think we got a bit less then we paid for.  The rooms all open to the outside, TAKE NOTE, and our particular room did NOT LOCK.  Also, our room was located in the back of the hotel, but if your room was in the front, you are almost directly on the highway with a lot of noise as a result. The room itself was noticeably dirty, and maybe if you are prepared for that and fine with it then go for it; however, we weren't prepared for it and had expected something decent.  The images provided on Tripadvisor and their own website are very misleading - there were no pictures hanging on the walls, the paint was chunked off in huge portions...This is my first review about a hotel, and I feel compelled to write it as a warning to other travelers.  My husband and I have stayed at many super 8s in the past, so we booked this place based on our past experiences.  We read the reviews, which were decidedly mixed, on other websites besides just Tripadvisor and decided we would chance it; we know everyone has different expectations and we are usually pretty easy going about these types of things. All we want is a clean, safe room to stay for the night.  However, this place was niether clean nor safe. Yes, it was cheap, and it's true you get what you pay for, but I think we got a bit less then we paid for.  The rooms all open to the outside, TAKE NOTE, and our particular room did NOT LOCK.  Also, our room was located in the back of the hotel, but if your room was in the front, you are almost directly on the highway with a lot of noise as a result. The room itself was noticeably dirty, and maybe if you are prepared for that and fine with it then go for it; however, we weren't prepared for it and had expected something decent.  The images provided on Tripadvisor and their own website are very misleading - there were no pictures hanging on the walls, the paint was chunked off in huge portions all over, and none of the furniture in the image was actually included in the room. I believe they probably have one model room they use for the photos. The description clearly stated our king bed room would include things such as "a recliner".  Instead, there was one bed (with stained sheets...not sure if they had changed them...) a very old and dirty table and a very old office chair that had an abundance of brown stains all over it.  The towels were also equally stained (hopefully stained...not just splattered with random yellow and brown spots)   We went to call the front desk to ask them about this and the phone was missing many buttons.  We were able to get a hold of them and they told us they were in the process of renovating.  I honestly do not believe this.  Had they been sincerely renovating, they should have put up signs and still made attempts to provide a comfortable stay.  We wouldn't have minded the sparseness or simplicity of the room had it even been clean and safe.  As far as the area goes, it is directly off of the highway and not really in a nice area.  There seemed to be some sort of gathering of rough looking men outside of one of the rooms and there were quite a few shady looking people leaning against the walls and hanging out even late at night when we returned from the concert we had attended.  The bottom line was, we did not stay there.  We made the mistake of purchasing the advance price which meant no refunds, but we were glad to drive the 3.5 hours back home late that night and lose 50 dollars rather than stay there. If you have children I definitely do not recommend this place. On a lighter note, we had a very nice stay at the super 8 in Grand Prairie, so if you can go a little bit of a distance, it is worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>This is my first review about a hotel, and I feel compelled to write it as a warning to other travelers.  My husband and I have stayed at many super 8s in the past, so we booked this place based on our past experiences.  We read the reviews, which were decidedly mixed, on other websites besides just Tripadvisor and decided we would chance it; we know everyone has different expectations and we are usually pretty easy going about these types of things. All we want is a clean, safe room to stay for the night.  However, this place was niether clean nor safe. Yes, it was cheap, and it's true you get what you pay for, but I think we got a bit less then we paid for.  The rooms all open to the outside, TAKE NOTE, and our particular room did NOT LOCK.  Also, our room was located in the back of the hotel, but if your room was in the front, you are almost directly on the highway with a lot of noise as a result. The room itself was noticeably dirty, and maybe if you are prepared for that and fine with it then go for it; however, we weren't prepared for it and had expected something decent.  The images provided on Tripadvisor and their own website are very misleading - there were no pictures hanging on the walls, the paint was chunked off in huge portions...This is my first review about a hotel, and I feel compelled to write it as a warning to other travelers.  My husband and I have stayed at many super 8s in the past, so we booked this place based on our past experiences.  We read the reviews, which were decidedly mixed, on other websites besides just Tripadvisor and decided we would chance it; we know everyone has different expectations and we are usually pretty easy going about these types of things. All we want is a clean, safe room to stay for the night.  However, this place was niether clean nor safe. Yes, it was cheap, and it's true you get what you pay for, but I think we got a bit less then we paid for.  The rooms all open to the outside, TAKE NOTE, and our particular room did NOT LOCK.  Also, our room was located in the back of the hotel, but if your room was in the front, you are almost directly on the highway with a lot of noise as a result. The room itself was noticeably dirty, and maybe if you are prepared for that and fine with it then go for it; however, we weren't prepared for it and had expected something decent.  The images provided on Tripadvisor and their own website are very misleading - there were no pictures hanging on the walls, the paint was chunked off in huge portions all over, and none of the furniture in the image was actually included in the room. I believe they probably have one model room they use for the photos. The description clearly stated our king bed room would include things such as "a recliner".  Instead, there was one bed (with stained sheets...not sure if they had changed them...) a very old and dirty table and a very old office chair that had an abundance of brown stains all over it.  The towels were also equally stained (hopefully stained...not just splattered with random yellow and brown spots)   We went to call the front desk to ask them about this and the phone was missing many buttons.  We were able to get a hold of them and they told us they were in the process of renovating.  I honestly do not believe this.  Had they been sincerely renovating, they should have put up signs and still made attempts to provide a comfortable stay.  We wouldn't have minded the sparseness or simplicity of the room had it even been clean and safe.  As far as the area goes, it is directly off of the highway and not really in a nice area.  There seemed to be some sort of gathering of rough looking men outside of one of the rooms and there were quite a few shady looking people leaning against the walls and hanging out even late at night when we returned from the concert we had attended.  The bottom line was, we did not stay there.  We made the mistake of purchasing the advance price which meant no refunds, but we were glad to drive the 3.5 hours back home late that night and lose 50 dollars rather than stay there. If you have children I definitely do not recommend this place. On a lighter note, we had a very nice stay at the super 8 in Grand Prairie, so if you can go a little bit of a distance, it is worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r123317555-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>123317555</t>
@@ -1099,10 +1476,7 @@
     <t>January 2012</t>
   </si>
   <si>
-    <t>Shepherdazad</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r115323010-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r115323010-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>115323010</t>
@@ -1120,10 +1494,7 @@
     <t>July 2011</t>
   </si>
   <si>
-    <t>patti1950</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r114828268-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r114828268-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>114828268</t>
@@ -1141,10 +1512,40 @@
     <t>June 2011</t>
   </si>
   <si>
-    <t>salcedoh2o</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r80471947-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r114614460-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>114614460</t>
+  </si>
+  <si>
+    <t>06/21/2011</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>My friends and I were in Dallas for a music festival and found the Super 8 to be both affordable and accommodating.  Travelers who are capable of forgoing the (IMO unnecessary) luxuries of a more expensive establishment, will recognize this hotel as way to save cash, without compromising comfort.  The hotel workers were friendly and the DIY Texas waffles were definitely a plus.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r113558956-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>113558956</t>
+  </si>
+  <si>
+    <t>06/14/2011</t>
+  </si>
+  <si>
+    <t>GREAT STAFF!!! GREAT SERVICE!!</t>
+  </si>
+  <si>
+    <t>I wrote a review but I am not sure if it uploaded. I wanted to make sure everyone know what a great time we had at the Super 8 in Dallas. The whole staff was friendly and professional. They were very responsive to our needs. The frig and microwave helped out expenses and we got a great rate. We were trying out for X Facot so we were in and out a lot and the staff was always pleasant and helpful, especially Laxman! WE ALL AGREED WE WILL STAY HERE AGAIN ANY TIME WE GO BACK TO DALLAS!!!</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r80471947-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>80471947</t>
@@ -1162,10 +1563,7 @@
     <t>September 2010</t>
   </si>
   <si>
-    <t>shonerm</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r58334773-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r58334773-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>58334773</t>
@@ -1183,10 +1581,7 @@
     <t>March 2010</t>
   </si>
   <si>
-    <t>Lionsclub79</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r24847301-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r24847301-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>24847301</t>
@@ -1204,10 +1599,49 @@
     <t>February 2009</t>
   </si>
   <si>
-    <t>LoveToTravel061</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r8472595-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r20834642-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>20834642</t>
+  </si>
+  <si>
+    <t>10/12/2008</t>
+  </si>
+  <si>
+    <t>DONT STAY</t>
+  </si>
+  <si>
+    <t>The hotel cancelled out our reservation even thought we has secured it with a credit card. We arrived at the hotel at 4 pm on satrurday and we planned to stay the whole week there.  I arrived to check in and my reservation had been cancelled and they had given the room away we requested.  We got another room that was smelly with smoke and we requested a non smoking room .  then they charged us $50.00 to stay in the jacuzzi room and i felt like they should have given it to us because of their mistake.  The next day we checked into another room and that room had an order of urine and it had not been cleaned.  The staff was very friendly.  They were in the middleof renovations it was nothing like it was on the internet (no breakfast, no workout room).  The hotel was just a mess.  I would not recommend anyone to stay there.  They were unorganized and the looks were deceiving.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>The hotel cancelled out our reservation even thought we has secured it with a credit card. We arrived at the hotel at 4 pm on satrurday and we planned to stay the whole week there.  I arrived to check in and my reservation had been cancelled and they had given the room away we requested.  We got another room that was smelly with smoke and we requested a non smoking room .  then they charged us $50.00 to stay in the jacuzzi room and i felt like they should have given it to us because of their mistake.  The next day we checked into another room and that room had an order of urine and it had not been cleaned.  The staff was very friendly.  They were in the middleof renovations it was nothing like it was on the internet (no breakfast, no workout room).  The hotel was just a mess.  I would not recommend anyone to stay there.  They were unorganized and the looks were deceiving.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r18437263-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>18437263</t>
+  </si>
+  <si>
+    <t>07/30/2008</t>
+  </si>
+  <si>
+    <t>Scary!</t>
+  </si>
+  <si>
+    <t>Friday the 13th! The motel experience at this Super 8 fits the date. I would guess this was "another brand"  motel, with recent renovations and a new manager (Mid-Eastern). Location was just off an expressway, in an industrial area;  warehouses and apartment complexes. First impression was okay until closer examination showed concertina (barbed) wire on the fences of the property and a side entrance closed off. Outside room entrances, 2 floors, no elevator. Several construction vehicles in parking lot, meaning the property is used by transient workers. Rooms were very nice, clean, and conditioned air. AARP rate, 2 adults, $62.09 total. Small, outdoor pool, looked okay but in front of property-lots of road debris. Manager had a mesh fence around the pool to try and keep the debris from the road entering pool. This worked partially, there were still some papers, cigarette butts, leaves, etc. in pool. Big sign on road (as well as motel brochure) advertised wifi, exercise room, and whirlpool- all non-existant. A car alarm went off outside our room at 2:30 AM-thankfully not ours. A man (intoxicated?) was sitting in a p/u truck, fiddling w/alarm(stopped it). But then he started trying the doors of the car next to the truck. I called front desk to inform them but got no answer after a dozen rings. Informed desk next AM, no concerns expressed (an Asian thing?). I always ask for connecting rooms on our vacations. Queried about this...Friday the 13th! The motel experience at this Super 8 fits the date. I would guess this was "another brand"  motel, with recent renovations and a new manager (Mid-Eastern). Location was just off an expressway, in an industrial area;  warehouses and apartment complexes. First impression was okay until closer examination showed concertina (barbed) wire on the fences of the property and a side entrance closed off. Outside room entrances, 2 floors, no elevator. Several construction vehicles in parking lot, meaning the property is used by transient workers. Rooms were very nice, clean, and conditioned air. AARP rate, 2 adults, $62.09 total. Small, outdoor pool, looked okay but in front of property-lots of road debris. Manager had a mesh fence around the pool to try and keep the debris from the road entering pool. This worked partially, there were still some papers, cigarette butts, leaves, etc. in pool. Big sign on road (as well as motel brochure) advertised wifi, exercise room, and whirlpool- all non-existant. A car alarm went off outside our room at 2:30 AM-thankfully not ours. A man (intoxicated?) was sitting in a p/u truck, fiddling w/alarm(stopped it). But then he started trying the doors of the car next to the truck. I called front desk to inform them but got no answer after a dozen rings. Informed desk next AM, no concerns expressed (an Asian thing?). I always ask for connecting rooms on our vacations. Queried about this again. Same response at this inn- the only rooms that connect already had one occupied. This after a 4 month reservation lead time and a personal phone call 2 days before the arrival- why can't inns grant this request?  Continental breakfast in AM, not bad, but crowded area.  I would not recommend this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>Friday the 13th! The motel experience at this Super 8 fits the date. I would guess this was "another brand"  motel, with recent renovations and a new manager (Mid-Eastern). Location was just off an expressway, in an industrial area;  warehouses and apartment complexes. First impression was okay until closer examination showed concertina (barbed) wire on the fences of the property and a side entrance closed off. Outside room entrances, 2 floors, no elevator. Several construction vehicles in parking lot, meaning the property is used by transient workers. Rooms were very nice, clean, and conditioned air. AARP rate, 2 adults, $62.09 total. Small, outdoor pool, looked okay but in front of property-lots of road debris. Manager had a mesh fence around the pool to try and keep the debris from the road entering pool. This worked partially, there were still some papers, cigarette butts, leaves, etc. in pool. Big sign on road (as well as motel brochure) advertised wifi, exercise room, and whirlpool- all non-existant. A car alarm went off outside our room at 2:30 AM-thankfully not ours. A man (intoxicated?) was sitting in a p/u truck, fiddling w/alarm(stopped it). But then he started trying the doors of the car next to the truck. I called front desk to inform them but got no answer after a dozen rings. Informed desk next AM, no concerns expressed (an Asian thing?). I always ask for connecting rooms on our vacations. Queried about this...Friday the 13th! The motel experience at this Super 8 fits the date. I would guess this was "another brand"  motel, with recent renovations and a new manager (Mid-Eastern). Location was just off an expressway, in an industrial area;  warehouses and apartment complexes. First impression was okay until closer examination showed concertina (barbed) wire on the fences of the property and a side entrance closed off. Outside room entrances, 2 floors, no elevator. Several construction vehicles in parking lot, meaning the property is used by transient workers. Rooms were very nice, clean, and conditioned air. AARP rate, 2 adults, $62.09 total. Small, outdoor pool, looked okay but in front of property-lots of road debris. Manager had a mesh fence around the pool to try and keep the debris from the road entering pool. This worked partially, there were still some papers, cigarette butts, leaves, etc. in pool. Big sign on road (as well as motel brochure) advertised wifi, exercise room, and whirlpool- all non-existant. A car alarm went off outside our room at 2:30 AM-thankfully not ours. A man (intoxicated?) was sitting in a p/u truck, fiddling w/alarm(stopped it). But then he started trying the doors of the car next to the truck. I called front desk to inform them but got no answer after a dozen rings. Informed desk next AM, no concerns expressed (an Asian thing?). I always ask for connecting rooms on our vacations. Queried about this again. Same response at this inn- the only rooms that connect already had one occupied. This after a 4 month reservation lead time and a personal phone call 2 days before the arrival- why can't inns grant this request?  Continental breakfast in AM, not bad, but crowded area.  I would not recommend this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r8472595-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>8472595</t>
@@ -1225,10 +1659,7 @@
     <t>June 2007</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r4827794-Super_8_Dallas_East-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109407-r4827794-Super_8_by_Wyndham_Dallas_East-Dallas_Texas.html</t>
   </si>
   <si>
     <t>4827794</t>
@@ -1745,126 +2176,112 @@
       <c r="A2" t="n">
         <v>17007</v>
       </c>
-      <c r="B2" t="n">
-        <v>178529</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>17007</v>
       </c>
-      <c r="B3" t="n">
-        <v>178530</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
         <v>5</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
@@ -1873,31 +2290,32 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>17007</v>
       </c>
-      <c r="B4" t="n">
-        <v>178531</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>62</v>
@@ -1905,107 +2323,97 @@
       <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
-      <c r="Y4" t="s">
-        <v>65</v>
-      </c>
+      <c r="Y4" t="s"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>17007</v>
       </c>
-      <c r="B5" t="n">
-        <v>178532</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>71</v>
       </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" t="s">
-        <v>74</v>
-      </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -2013,141 +2421,127 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>17007</v>
       </c>
-      <c r="B6" t="n">
-        <v>178533</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
       <c r="O6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
-      <c r="Y6" t="s">
-        <v>80</v>
-      </c>
+      <c r="Y6" t="s"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>17007</v>
       </c>
-      <c r="B7" t="n">
-        <v>178534</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
         <v>81</v>
       </c>
-      <c r="O7" t="s">
-        <v>88</v>
-      </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -2155,70 +2549,66 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>17007</v>
       </c>
-      <c r="B8" t="n">
-        <v>178535</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -2226,53 +2616,49 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>17007</v>
       </c>
-      <c r="B9" t="n">
-        <v>178536</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
         <v>3</v>
@@ -2281,122 +2667,127 @@
         <v>4</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>17007</v>
       </c>
-      <c r="B10" t="n">
-        <v>178537</v>
-      </c>
-      <c r="C10" t="s">
-        <v>100</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>17007</v>
       </c>
-      <c r="B11" t="n">
-        <v>178538</v>
-      </c>
-      <c r="C11" t="s">
-        <v>107</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -2405,14 +2796,14 @@
         <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2420,70 +2811,66 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>17007</v>
       </c>
-      <c r="B12" t="n">
-        <v>2818</v>
-      </c>
-      <c r="C12" t="s">
-        <v>113</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2491,518 +2878,487 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>17007</v>
       </c>
-      <c r="B13" t="n">
-        <v>178539</v>
-      </c>
-      <c r="C13" t="s">
-        <v>119</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
-      </c>
-      <c r="K13" t="s">
-        <v>123</v>
-      </c>
-      <c r="L13" t="s">
-        <v>124</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
         <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
-      <c r="Y13" t="s">
-        <v>124</v>
-      </c>
+      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>17007</v>
       </c>
-      <c r="B14" t="n">
-        <v>178540</v>
-      </c>
-      <c r="C14" t="s">
-        <v>126</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="K14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" t="s">
+        <v>116</v>
+      </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O14" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
         <v>3</v>
       </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>17007</v>
       </c>
-      <c r="B15" t="n">
-        <v>6798</v>
-      </c>
-      <c r="C15" t="s">
-        <v>131</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O15" t="s">
-        <v>88</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>17007</v>
       </c>
-      <c r="B16" t="n">
-        <v>178541</v>
-      </c>
-      <c r="C16" t="s">
-        <v>137</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
-      </c>
-      <c r="K16" t="s">
-        <v>141</v>
-      </c>
-      <c r="L16" t="s">
-        <v>142</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="O16" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
-      <c r="Y16" t="s">
-        <v>142</v>
-      </c>
+      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>17007</v>
       </c>
-      <c r="B17" t="n">
-        <v>178542</v>
-      </c>
-      <c r="C17" t="s">
-        <v>144</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
-      </c>
-      <c r="K17" t="s"/>
-      <c r="L17" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="K17" t="s">
+        <v>129</v>
+      </c>
+      <c r="L17" t="s">
+        <v>130</v>
+      </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17007</v>
       </c>
-      <c r="B18" t="n">
-        <v>178543</v>
-      </c>
-      <c r="C18" t="s">
-        <v>148</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="J18" t="s">
-        <v>151</v>
-      </c>
-      <c r="K18" t="s">
-        <v>152</v>
-      </c>
-      <c r="L18" t="s">
-        <v>153</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="O18" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
-      <c r="Y18" t="s">
-        <v>153</v>
-      </c>
+      <c r="Y18" t="s"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>17007</v>
       </c>
-      <c r="B19" t="n">
-        <v>178544</v>
-      </c>
-      <c r="C19" t="s">
-        <v>155</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
-      </c>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="K19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" t="s">
+        <v>140</v>
+      </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="O19" t="s">
-        <v>74</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>17007</v>
       </c>
-      <c r="B20" t="n">
-        <v>178545</v>
-      </c>
-      <c r="C20" t="s">
-        <v>159</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="J20" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="K20" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="L20" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="O20" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -3011,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -3026,68 +3382,66 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>17007</v>
       </c>
-      <c r="B21" t="n">
-        <v>178546</v>
-      </c>
-      <c r="C21" t="s">
-        <v>167</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
-      </c>
-      <c r="K21" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="K21" t="s">
+        <v>151</v>
+      </c>
       <c r="L21" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3095,66 +3449,62 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>17007</v>
       </c>
-      <c r="B22" t="n">
-        <v>178547</v>
-      </c>
-      <c r="C22" t="s">
-        <v>173</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="K22" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="L22" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="O22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
         <v>5</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
@@ -3166,54 +3516,46 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>17007</v>
       </c>
-      <c r="B23" t="n">
-        <v>178548</v>
-      </c>
-      <c r="C23" t="s">
-        <v>178</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="J23" t="s">
-        <v>181</v>
-      </c>
-      <c r="K23" t="s">
-        <v>182</v>
-      </c>
-      <c r="L23" t="s">
-        <v>183</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="O23" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -3222,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -3236,71 +3578,65 @@
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
-      <c r="Y23" t="s">
-        <v>185</v>
-      </c>
+      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>17007</v>
       </c>
-      <c r="B24" t="n">
-        <v>178549</v>
-      </c>
-      <c r="C24" t="s">
-        <v>186</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="J24" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="K24" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="L24" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="O24" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3308,183 +3644,172 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>17007</v>
       </c>
-      <c r="B25" t="n">
-        <v>178550</v>
-      </c>
-      <c r="C25" t="s">
-        <v>193</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="J25" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
         <v>4</v>
       </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>17007</v>
       </c>
-      <c r="B26" t="n">
-        <v>178551</v>
-      </c>
-      <c r="C26" t="s">
-        <v>198</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="J26" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="K26" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="L26" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="O26" t="s">
-        <v>74</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>17007</v>
       </c>
-      <c r="B27" t="n">
-        <v>178552</v>
-      </c>
-      <c r="C27" t="s">
-        <v>204</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="J27" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="K27" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="L27" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="O27" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3508,50 +3833,50 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>17007</v>
       </c>
-      <c r="B28" t="n">
-        <v>178553</v>
-      </c>
-      <c r="C28" t="s">
-        <v>209</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="J28" t="s">
-        <v>201</v>
-      </c>
-      <c r="K28" t="s"/>
-      <c r="L28" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="K28" t="s">
+        <v>186</v>
+      </c>
+      <c r="L28" t="s">
+        <v>187</v>
+      </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="O28" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3572,328 +3897,319 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>17007</v>
       </c>
-      <c r="B29" t="n">
-        <v>178554</v>
-      </c>
-      <c r="C29" t="s">
-        <v>212</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="J29" t="s">
-        <v>215</v>
-      </c>
-      <c r="K29" t="s">
-        <v>216</v>
-      </c>
-      <c r="L29" t="s">
-        <v>217</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="O29" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
-      <c r="Y29" t="s">
-        <v>217</v>
-      </c>
+      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>17007</v>
       </c>
-      <c r="B30" t="n">
-        <v>178555</v>
-      </c>
-      <c r="C30" t="s">
-        <v>219</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="J30" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="K30" t="s"/>
-      <c r="L30" t="s">
-        <v>171</v>
-      </c>
+      <c r="L30" t="s"/>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="O30" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
-      <c r="Y30" t="s">
-        <v>172</v>
-      </c>
+      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>17007</v>
       </c>
-      <c r="B31" t="n">
-        <v>2922</v>
-      </c>
-      <c r="C31" t="s">
-        <v>224</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="J31" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="K31" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="L31" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="N31" t="s">
+        <v>198</v>
+      </c>
+      <c r="O31" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>17007</v>
       </c>
-      <c r="B32" t="n">
-        <v>178556</v>
-      </c>
-      <c r="C32" t="s">
-        <v>230</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="J32" t="s">
-        <v>233</v>
-      </c>
-      <c r="K32" t="s">
-        <v>234</v>
-      </c>
-      <c r="L32" t="s">
-        <v>235</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
-      <c r="Y32" t="s">
-        <v>235</v>
-      </c>
+      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>17007</v>
       </c>
-      <c r="B33" t="n">
-        <v>31551</v>
-      </c>
-      <c r="C33" t="s">
-        <v>237</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="J33" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="K33" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="L33" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="O33" t="s">
-        <v>192</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
       <c r="Q33" t="n">
         <v>2</v>
       </c>
-      <c r="R33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3901,132 +4217,133 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>17007</v>
       </c>
-      <c r="B34" t="n">
-        <v>178557</v>
-      </c>
-      <c r="C34" t="s">
-        <v>244</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="J34" t="s">
-        <v>247</v>
-      </c>
-      <c r="K34" t="s"/>
-      <c r="L34" t="s"/>
+        <v>210</v>
+      </c>
+      <c r="K34" t="s">
+        <v>211</v>
+      </c>
+      <c r="L34" t="s">
+        <v>212</v>
+      </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>248</v>
+        <v>198</v>
       </c>
       <c r="O34" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>17007</v>
       </c>
-      <c r="B35" t="n">
-        <v>14929</v>
-      </c>
-      <c r="C35" t="s">
-        <v>249</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="J35" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="K35" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="L35" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>218</v>
+      </c>
+      <c r="O35" t="s">
+        <v>97</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
         <v>3</v>
       </c>
-      <c r="N35" t="s">
-        <v>248</v>
-      </c>
-      <c r="O35" t="s">
-        <v>192</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -4034,55 +4351,51 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>17007</v>
       </c>
-      <c r="B36" t="n">
-        <v>178558</v>
-      </c>
-      <c r="C36" t="s">
-        <v>255</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="J36" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="O36" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -4095,7 +4408,7 @@
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -4103,125 +4416,133 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>17007</v>
       </c>
-      <c r="B37" t="n">
-        <v>1786</v>
-      </c>
-      <c r="C37" t="s">
-        <v>260</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="J37" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="K37" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="L37" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
-      </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
-      <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>218</v>
+      </c>
+      <c r="O37" t="s">
+        <v>97</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>17007</v>
       </c>
-      <c r="B38" t="n">
-        <v>10057</v>
-      </c>
-      <c r="C38" t="s">
-        <v>266</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="J38" t="s">
-        <v>269</v>
-      </c>
-      <c r="K38" t="s"/>
+        <v>231</v>
+      </c>
+      <c r="K38" t="s">
+        <v>232</v>
+      </c>
       <c r="L38" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="O38" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4229,179 +4550,178 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>17007</v>
       </c>
-      <c r="B39" t="n">
-        <v>178559</v>
-      </c>
-      <c r="C39" t="s">
-        <v>271</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="J39" t="s">
-        <v>274</v>
-      </c>
-      <c r="K39" t="s">
-        <v>275</v>
-      </c>
-      <c r="L39" t="s">
-        <v>276</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="O39" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q39" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
       <c r="R39" t="n">
-        <v>1</v>
-      </c>
-      <c r="S39" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
-      <c r="Y39" t="s">
-        <v>277</v>
-      </c>
+      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>17007</v>
       </c>
-      <c r="B40" t="n">
-        <v>34825</v>
-      </c>
-      <c r="C40" t="s">
-        <v>278</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="J40" t="s">
-        <v>281</v>
-      </c>
-      <c r="K40" t="s"/>
-      <c r="L40" t="s"/>
+        <v>239</v>
+      </c>
+      <c r="K40" t="s">
+        <v>240</v>
+      </c>
+      <c r="L40" t="s">
+        <v>241</v>
+      </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="O40" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>17007</v>
       </c>
-      <c r="B41" t="n">
-        <v>61175</v>
-      </c>
-      <c r="C41" t="s">
-        <v>283</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="J41" t="s">
-        <v>286</v>
-      </c>
-      <c r="K41" t="s"/>
-      <c r="L41" t="s"/>
+        <v>246</v>
+      </c>
+      <c r="K41" t="s">
+        <v>247</v>
+      </c>
+      <c r="L41" t="s">
+        <v>248</v>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="O41" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4410,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S41" t="n">
         <v>1</v>
@@ -4422,60 +4742,61 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>17007</v>
       </c>
-      <c r="B42" t="n">
-        <v>10175</v>
-      </c>
-      <c r="C42" t="s">
-        <v>288</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="J42" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
       <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>252</v>
+      </c>
+      <c r="O42" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42" t="n">
         <v>4</v>
       </c>
-      <c r="N42" t="s">
-        <v>292</v>
-      </c>
-      <c r="O42" t="s">
-        <v>74</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
       <c r="Q42" t="n">
         <v>5</v>
       </c>
       <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
         <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
@@ -4484,64 +4805,67 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>17007</v>
       </c>
-      <c r="B43" t="n">
-        <v>178560</v>
-      </c>
-      <c r="C43" t="s">
-        <v>293</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="J43" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="K43" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="L43" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>242</v>
+      </c>
+      <c r="O43" t="s">
+        <v>97</v>
+      </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4549,132 +4873,129 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>17007</v>
       </c>
-      <c r="B44" t="n">
-        <v>26802</v>
-      </c>
-      <c r="C44" t="s">
-        <v>299</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="J44" t="s">
-        <v>302</v>
-      </c>
-      <c r="K44" t="s"/>
-      <c r="L44" t="s"/>
+        <v>260</v>
+      </c>
+      <c r="K44" t="s">
+        <v>261</v>
+      </c>
+      <c r="L44" t="s">
+        <v>262</v>
+      </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="O44" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>17007</v>
       </c>
-      <c r="B45" t="n">
-        <v>178561</v>
-      </c>
-      <c r="C45" t="s">
-        <v>304</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="J45" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="K45" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="L45" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>310</v>
+        <v>252</v>
       </c>
       <c r="O45" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2</v>
-      </c>
-      <c r="S45" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4682,54 +5003,50 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>17007</v>
       </c>
-      <c r="B46" t="n">
-        <v>87983</v>
-      </c>
-      <c r="C46" t="s">
-        <v>312</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="J46" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="K46" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="L46" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>318</v>
+        <v>252</v>
       </c>
       <c r="O46" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4738,7 +5055,7 @@
         <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -4753,130 +5070,127 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>17007</v>
       </c>
-      <c r="B47" t="n">
-        <v>178562</v>
-      </c>
-      <c r="C47" t="s">
-        <v>319</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="J47" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s"/>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>323</v>
+        <v>252</v>
       </c>
       <c r="O47" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>17007</v>
       </c>
-      <c r="B48" t="n">
-        <v>178563</v>
-      </c>
-      <c r="C48" t="s">
-        <v>324</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="J48" t="s">
-        <v>327</v>
-      </c>
-      <c r="K48" t="s"/>
+        <v>265</v>
+      </c>
+      <c r="K48" t="s">
+        <v>276</v>
+      </c>
       <c r="L48" t="s">
-        <v>171</v>
+        <v>277</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>328</v>
+        <v>252</v>
       </c>
       <c r="O48" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -4884,132 +5198,133 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>172</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>17007</v>
       </c>
-      <c r="B49" t="n">
-        <v>178564</v>
-      </c>
-      <c r="C49" t="s">
-        <v>329</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="J49" t="s">
-        <v>332</v>
-      </c>
-      <c r="K49" t="s"/>
-      <c r="L49" t="s"/>
+        <v>280</v>
+      </c>
+      <c r="K49" t="s">
+        <v>281</v>
+      </c>
+      <c r="L49" t="s">
+        <v>282</v>
+      </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>328</v>
+        <v>252</v>
       </c>
       <c r="O49" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>17007</v>
       </c>
-      <c r="B50" t="n">
-        <v>178565</v>
-      </c>
-      <c r="C50" t="s">
-        <v>333</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="J50" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="K50" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="L50" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>141</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="n">
         <v>2</v>
-      </c>
-      <c r="N50" t="s">
-        <v>339</v>
-      </c>
-      <c r="O50" t="s">
-        <v>88</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1</v>
       </c>
       <c r="Q50" t="n">
         <v>3</v>
       </c>
       <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
         <v>2</v>
-      </c>
-      <c r="S50" t="n">
-        <v>3</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -5017,201 +5332,184 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>17007</v>
       </c>
-      <c r="B51" t="n">
-        <v>178566</v>
-      </c>
-      <c r="C51" t="s">
-        <v>340</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="J51" t="s">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="K51" t="s"/>
-      <c r="L51" t="s"/>
+      <c r="L51" t="s">
+        <v>223</v>
+      </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="O51" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q51" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
       <c r="R51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>17007</v>
       </c>
-      <c r="B52" t="n">
-        <v>178567</v>
-      </c>
-      <c r="C52" t="s">
-        <v>344</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>346</v>
+        <v>293</v>
       </c>
       <c r="J52" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="K52" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="L52" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
-      <c r="N52" t="s">
-        <v>350</v>
-      </c>
-      <c r="O52" t="s">
-        <v>88</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>1</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>17007</v>
       </c>
-      <c r="B53" t="n">
-        <v>178568</v>
-      </c>
-      <c r="C53" t="s">
-        <v>352</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="J53" t="s">
-        <v>355</v>
+        <v>299</v>
       </c>
       <c r="K53" t="s">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="L53" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="O53" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5219,130 +5517,120 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>17007</v>
       </c>
-      <c r="B54" t="n">
-        <v>178569</v>
-      </c>
-      <c r="C54" t="s">
-        <v>359</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="J54" t="s">
-        <v>362</v>
-      </c>
-      <c r="K54" t="s">
-        <v>363</v>
-      </c>
-      <c r="L54" t="s">
-        <v>364</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
       <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>305</v>
+      </c>
+      <c r="O54" t="s">
+        <v>97</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
         <v>4</v>
       </c>
-      <c r="N54" t="s">
-        <v>365</v>
-      </c>
-      <c r="O54" t="s">
-        <v>192</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
-      <c r="Y54" t="s">
-        <v>364</v>
-      </c>
+      <c r="Y54" t="s"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>17007</v>
       </c>
-      <c r="B55" t="n">
-        <v>178570</v>
-      </c>
-      <c r="C55" t="s">
-        <v>366</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>367</v>
+        <v>306</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>368</v>
+        <v>307</v>
       </c>
       <c r="J55" t="s">
-        <v>369</v>
+        <v>308</v>
       </c>
       <c r="K55" t="s">
-        <v>370</v>
+        <v>309</v>
       </c>
       <c r="L55" t="s">
-        <v>371</v>
+        <v>310</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>372</v>
+        <v>311</v>
       </c>
       <c r="O55" t="s">
-        <v>54</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="s"/>
-      <c r="R55" t="s"/>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
         <v>5</v>
@@ -5353,70 +5641,62 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>371</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>17007</v>
       </c>
-      <c r="B56" t="n">
-        <v>178571</v>
-      </c>
-      <c r="C56" t="s">
-        <v>373</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>374</v>
+        <v>312</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>375</v>
+        <v>313</v>
       </c>
       <c r="J56" t="s">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="K56" t="s">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="L56" t="s">
-        <v>378</v>
+        <v>316</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>379</v>
+        <v>317</v>
       </c>
       <c r="O56" t="s">
-        <v>192</v>
-      </c>
-      <c r="P56" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P56" t="s"/>
       <c r="Q56" t="n">
-        <v>1</v>
-      </c>
-      <c r="R56" t="n">
         <v>2</v>
       </c>
+      <c r="R56" t="s"/>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5424,212 +5704,172 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>378</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>17007</v>
       </c>
-      <c r="B57" t="n">
-        <v>178572</v>
-      </c>
-      <c r="C57" t="s">
-        <v>380</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="J57" t="s">
-        <v>383</v>
-      </c>
-      <c r="K57" t="s">
-        <v>384</v>
-      </c>
-      <c r="L57" t="s">
-        <v>385</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>386</v>
+        <v>321</v>
       </c>
       <c r="O57" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="P57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
-      <c r="Y57" t="s">
-        <v>385</v>
-      </c>
+      <c r="Y57" t="s"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>17007</v>
       </c>
-      <c r="B58" t="n">
-        <v>178573</v>
-      </c>
-      <c r="C58" t="s">
-        <v>387</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>389</v>
+        <v>323</v>
       </c>
       <c r="J58" t="s">
-        <v>390</v>
-      </c>
-      <c r="K58" t="s">
-        <v>391</v>
-      </c>
-      <c r="L58" t="s">
-        <v>392</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5</v>
-      </c>
-      <c r="N58" t="s">
-        <v>393</v>
-      </c>
-      <c r="O58" t="s">
-        <v>74</v>
-      </c>
-      <c r="P58" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>5</v>
-      </c>
-      <c r="R58" t="n">
-        <v>4</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="s"/>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>5</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
-      <c r="Y58" t="s">
-        <v>392</v>
-      </c>
+      <c r="Y58" t="s"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>17007</v>
       </c>
-      <c r="B59" t="n">
-        <v>178574</v>
-      </c>
-      <c r="C59" t="s">
-        <v>394</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>395</v>
+        <v>325</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>396</v>
+        <v>326</v>
       </c>
       <c r="J59" t="s">
-        <v>397</v>
+        <v>327</v>
       </c>
       <c r="K59" t="s">
-        <v>398</v>
+        <v>328</v>
       </c>
       <c r="L59" t="s">
-        <v>399</v>
+        <v>329</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>400</v>
+        <v>321</v>
       </c>
       <c r="O59" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="P59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -5637,64 +5877,66 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>399</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>17007</v>
       </c>
-      <c r="B60" t="n">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>401</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>402</v>
+        <v>331</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>403</v>
+        <v>332</v>
       </c>
       <c r="J60" t="s">
-        <v>404</v>
+        <v>333</v>
       </c>
       <c r="K60" t="s">
-        <v>405</v>
+        <v>334</v>
       </c>
       <c r="L60" t="s">
-        <v>406</v>
+        <v>335</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="s"/>
-      <c r="O60" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>321</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
       <c r="P60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
-      </c>
-      <c r="R60" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -5702,7 +5944,2628 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>336</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>337</v>
+      </c>
+      <c r="J61" t="s">
+        <v>338</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s">
+        <v>223</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>339</v>
+      </c>
+      <c r="O61" t="s">
+        <v>97</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>340</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>341</v>
+      </c>
+      <c r="J62" t="s">
+        <v>342</v>
+      </c>
+      <c r="K62" t="s">
+        <v>343</v>
+      </c>
+      <c r="L62" t="s">
+        <v>344</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>345</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>346</v>
+      </c>
+      <c r="J63" t="s">
+        <v>347</v>
+      </c>
+      <c r="K63" t="s">
+        <v>348</v>
+      </c>
+      <c r="L63" t="s">
+        <v>349</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>350</v>
+      </c>
+      <c r="O63" t="s">
+        <v>97</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>352</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>353</v>
+      </c>
+      <c r="J64" t="s">
+        <v>354</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>355</v>
+      </c>
+      <c r="O64" t="s">
+        <v>81</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>356</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>357</v>
+      </c>
+      <c r="J65" t="s">
+        <v>358</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s">
+        <v>223</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>359</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>360</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>361</v>
+      </c>
+      <c r="J66" t="s">
+        <v>362</v>
+      </c>
+      <c r="K66" t="s">
+        <v>363</v>
+      </c>
+      <c r="L66" t="s">
+        <v>364</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>359</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>366</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>367</v>
+      </c>
+      <c r="J67" t="s">
+        <v>368</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>369</v>
+      </c>
+      <c r="O67" t="s">
+        <v>97</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>2</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>370</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>371</v>
+      </c>
+      <c r="J68" t="s">
+        <v>372</v>
+      </c>
+      <c r="K68" t="s">
+        <v>373</v>
+      </c>
+      <c r="L68" t="s">
+        <v>374</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>375</v>
+      </c>
+      <c r="O68" t="s">
+        <v>97</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>376</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>377</v>
+      </c>
+      <c r="J69" t="s">
+        <v>378</v>
+      </c>
+      <c r="K69" t="s">
+        <v>379</v>
+      </c>
+      <c r="L69" t="s">
+        <v>380</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>381</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>383</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>384</v>
+      </c>
+      <c r="J70" t="s">
+        <v>385</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>386</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>387</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>388</v>
+      </c>
+      <c r="J71" t="s">
+        <v>389</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>390</v>
+      </c>
+      <c r="O71" t="s">
+        <v>97</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>391</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>392</v>
+      </c>
+      <c r="J72" t="s">
+        <v>393</v>
+      </c>
+      <c r="K72" t="s">
+        <v>394</v>
+      </c>
+      <c r="L72" t="s">
+        <v>395</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>396</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>397</v>
+      </c>
+      <c r="J73" t="s">
+        <v>398</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>381</v>
+      </c>
+      <c r="O73" t="s">
+        <v>81</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>399</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>400</v>
+      </c>
+      <c r="J74" t="s">
+        <v>401</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s">
+        <v>223</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>402</v>
+      </c>
+      <c r="O74" t="s">
+        <v>97</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>403</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>404</v>
+      </c>
+      <c r="J75" t="s">
+        <v>405</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
         <v>406</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>407</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>408</v>
+      </c>
+      <c r="J76" t="s">
+        <v>409</v>
+      </c>
+      <c r="K76" t="s">
+        <v>410</v>
+      </c>
+      <c r="L76" t="s">
+        <v>411</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>412</v>
+      </c>
+      <c r="O76" t="s">
+        <v>81</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>414</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>415</v>
+      </c>
+      <c r="J77" t="s">
+        <v>416</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>417</v>
+      </c>
+      <c r="O77" t="s">
+        <v>81</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>418</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>419</v>
+      </c>
+      <c r="J78" t="s">
+        <v>420</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s">
+        <v>223</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>421</v>
+      </c>
+      <c r="O78" t="s">
+        <v>60</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>422</v>
+      </c>
+      <c r="X78" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>424</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>425</v>
+      </c>
+      <c r="J79" t="s">
+        <v>426</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s">
+        <v>223</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>427</v>
+      </c>
+      <c r="O79" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>428</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>429</v>
+      </c>
+      <c r="J80" t="s">
+        <v>430</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>431</v>
+      </c>
+      <c r="O80" t="s">
+        <v>97</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>2</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>432</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>433</v>
+      </c>
+      <c r="J81" t="s">
+        <v>434</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s">
+        <v>223</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>435</v>
+      </c>
+      <c r="O81" t="s">
+        <v>97</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>436</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>437</v>
+      </c>
+      <c r="J82" t="s">
+        <v>438</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>435</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>439</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>440</v>
+      </c>
+      <c r="J83" t="s">
+        <v>441</v>
+      </c>
+      <c r="K83" t="s">
+        <v>442</v>
+      </c>
+      <c r="L83" t="s">
+        <v>443</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>444</v>
+      </c>
+      <c r="O83" t="s">
+        <v>60</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>445</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>446</v>
+      </c>
+      <c r="J84" t="s">
+        <v>447</v>
+      </c>
+      <c r="K84" t="s">
+        <v>448</v>
+      </c>
+      <c r="L84" t="s">
+        <v>449</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>444</v>
+      </c>
+      <c r="O84" t="s">
+        <v>97</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>450</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>451</v>
+      </c>
+      <c r="J85" t="s">
+        <v>447</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s"/>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>444</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>452</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>453</v>
+      </c>
+      <c r="J86" t="s">
+        <v>454</v>
+      </c>
+      <c r="K86" t="s"/>
+      <c r="L86" t="s"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>444</v>
+      </c>
+      <c r="O86" t="s">
+        <v>81</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="n">
+        <v>1</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>455</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>456</v>
+      </c>
+      <c r="J87" t="s">
+        <v>457</v>
+      </c>
+      <c r="K87" t="s">
+        <v>458</v>
+      </c>
+      <c r="L87" t="s">
+        <v>459</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>460</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>462</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>463</v>
+      </c>
+      <c r="J88" t="s">
+        <v>464</v>
+      </c>
+      <c r="K88" t="s">
+        <v>465</v>
+      </c>
+      <c r="L88" t="s">
+        <v>466</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>467</v>
+      </c>
+      <c r="O88" t="s">
+        <v>81</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>469</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>470</v>
+      </c>
+      <c r="J89" t="s">
+        <v>471</v>
+      </c>
+      <c r="K89" t="s">
+        <v>472</v>
+      </c>
+      <c r="L89" t="s">
+        <v>473</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>474</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>476</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>477</v>
+      </c>
+      <c r="J90" t="s">
+        <v>478</v>
+      </c>
+      <c r="K90" t="s">
+        <v>479</v>
+      </c>
+      <c r="L90" t="s">
+        <v>480</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>481</v>
+      </c>
+      <c r="O90" t="s">
+        <v>97</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>482</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>483</v>
+      </c>
+      <c r="J91" t="s">
+        <v>484</v>
+      </c>
+      <c r="K91" t="s">
+        <v>485</v>
+      </c>
+      <c r="L91" t="s">
+        <v>486</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>487</v>
+      </c>
+      <c r="O91" t="s">
+        <v>60</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>488</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>489</v>
+      </c>
+      <c r="J92" t="s">
+        <v>490</v>
+      </c>
+      <c r="K92" t="s">
+        <v>491</v>
+      </c>
+      <c r="L92" t="s">
+        <v>492</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>493</v>
+      </c>
+      <c r="O92" t="s">
+        <v>71</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>494</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>495</v>
+      </c>
+      <c r="J93" t="s">
+        <v>496</v>
+      </c>
+      <c r="K93" t="s">
+        <v>497</v>
+      </c>
+      <c r="L93" t="s">
+        <v>498</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>493</v>
+      </c>
+      <c r="O93" t="s">
+        <v>81</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>499</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>500</v>
+      </c>
+      <c r="J94" t="s">
+        <v>501</v>
+      </c>
+      <c r="K94" t="s">
+        <v>502</v>
+      </c>
+      <c r="L94" t="s">
+        <v>503</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>504</v>
+      </c>
+      <c r="O94" t="s">
+        <v>81</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>505</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>506</v>
+      </c>
+      <c r="J95" t="s">
+        <v>507</v>
+      </c>
+      <c r="K95" t="s">
+        <v>508</v>
+      </c>
+      <c r="L95" t="s">
+        <v>509</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
+        <v>510</v>
+      </c>
+      <c r="O95" t="s">
+        <v>60</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>1</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>511</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>512</v>
+      </c>
+      <c r="J96" t="s">
+        <v>513</v>
+      </c>
+      <c r="K96" t="s">
+        <v>514</v>
+      </c>
+      <c r="L96" t="s">
+        <v>515</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>516</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>517</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>518</v>
+      </c>
+      <c r="J97" t="s">
+        <v>519</v>
+      </c>
+      <c r="K97" t="s">
+        <v>520</v>
+      </c>
+      <c r="L97" t="s">
+        <v>521</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>522</v>
+      </c>
+      <c r="O97" t="s">
+        <v>97</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>523</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>524</v>
+      </c>
+      <c r="J98" t="s">
+        <v>525</v>
+      </c>
+      <c r="K98" t="s">
+        <v>526</v>
+      </c>
+      <c r="L98" t="s">
+        <v>527</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>528</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>530</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>531</v>
+      </c>
+      <c r="J99" t="s">
+        <v>532</v>
+      </c>
+      <c r="K99" t="s">
+        <v>533</v>
+      </c>
+      <c r="L99" t="s">
+        <v>534</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="s">
+        <v>535</v>
+      </c>
+      <c r="O99" t="s">
+        <v>81</v>
+      </c>
+      <c r="P99" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>537</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>538</v>
+      </c>
+      <c r="J100" t="s">
+        <v>539</v>
+      </c>
+      <c r="K100" t="s">
+        <v>540</v>
+      </c>
+      <c r="L100" t="s">
+        <v>541</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>542</v>
+      </c>
+      <c r="O100" t="s">
+        <v>97</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>17007</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>543</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>544</v>
+      </c>
+      <c r="J101" t="s">
+        <v>545</v>
+      </c>
+      <c r="K101" t="s">
+        <v>546</v>
+      </c>
+      <c r="L101" t="s">
+        <v>547</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="s"/>
+      <c r="S101" t="n">
+        <v>1</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>
